--- a/meta data.xlsx
+++ b/meta data.xlsx
@@ -2316,11 +2316,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2337,112 +2338,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2450,23 +2355,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2490,23 +2380,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2518,91 +2391,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2612,13 +2408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F596"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A536" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F554" activeCellId="0" sqref="F554"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A542" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B582" activeCellId="0" sqref="B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8086,97 +7882,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C586">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="01/12/19"/>
-        <filter val="02/07/2019"/>
-        <filter val="03/03/2015"/>
-        <filter val="03/07/2019"/>
-        <filter val="03/12/19"/>
-        <filter val="03/Jun/2019"/>
-        <filter val="04/13/2019"/>
-        <filter val="05/04/19"/>
-        <filter val="05/07/2019"/>
-        <filter val="06/01/19"/>
-        <filter val="06/02/2019"/>
-        <filter val="06/03/19"/>
-        <filter val="06/03/2019"/>
-        <filter val="06/05/2019"/>
-        <filter val="06/06/19"/>
-        <filter val="06/11/19"/>
-        <filter val="06/16/2019"/>
-        <filter val="06/17/2019"/>
-        <filter val="06/20/19"/>
-        <filter val="06/26/2019"/>
-        <filter val="06/29/19"/>
-        <filter val="07-Jun-2019"/>
-        <filter val="07/06/19"/>
-        <filter val="07/08/19"/>
-        <filter val="07/09/19"/>
-        <filter val="07/28/18"/>
-        <filter val="08/05/2019"/>
-        <filter val="08/07/19"/>
-        <filter val="09/25/18"/>
-        <filter val="1"/>
-        <filter val="10/05/19"/>
-        <filter val="10/25/2017"/>
-        <filter val="10/6/19"/>
-        <filter val="11/06/19"/>
-        <filter val="12/28/2017"/>
-        <filter val="12/Jul/2019"/>
-        <filter val="12MAR’19"/>
-        <filter val="13-06-2019"/>
-        <filter val="13-07-19"/>
-        <filter val="13-4-19"/>
-        <filter val="14-5-201"/>
-        <filter val="15/06/2019"/>
-        <filter val="17/05/2019"/>
-        <filter val="17/07/2019"/>
-        <filter val="18/06/2019"/>
-        <filter val="18/07/2019"/>
-        <filter val="2013-08-10"/>
-        <filter val="22-06-2019"/>
-        <filter val="22.05.2019"/>
-        <filter val="22/05/2019"/>
-        <filter val="22/5/19"/>
-        <filter val="23-07-19"/>
-        <filter val="23/05/2019"/>
-        <filter val="23/06/2019"/>
-        <filter val="25-07-19"/>
-        <filter val="25-Jul-2019"/>
-        <filter val="25/7/19"/>
-        <filter val="25AUG’17"/>
-        <filter val="27-Jun-19"/>
-        <filter val="27/5/19"/>
-        <filter val="28 Jun 2019"/>
-        <filter val="28-05-19"/>
-        <filter val="28-Jun-2019"/>
-        <filter val="28/06/2019"/>
-        <filter val="29-6-2019"/>
-        <filter val="29-MAY-2019"/>
-        <filter val="29/05/2019"/>
-        <filter val="30.04.2019"/>
-        <filter val="31/05/19"/>
-        <filter val="31/05/2019"/>
-        <filter val="31/5/19"/>
-        <filter val="5/15/2019"/>
-        <filter val="5/4/2017"/>
-        <filter val="6/1/19"/>
-        <filter val="6/24/2018"/>
-        <filter val="6/28/2019"/>
-        <filter val="6/3/2019"/>
-        <filter val="7/2/2019"/>
-        <filter val="Apr07’16"/>
-        <filter val="December 29, 2018"/>
-        <filter val="Jan 28, 2018"/>
-        <filter val="Jul 1, 2019"/>
-        <filter val="NaN"/>
-        <filter val="Sep 29, 2018"/>
-        <filter val="Sep07’18"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C586"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/meta data.xlsx
+++ b/meta data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="767">
   <si>
     <t xml:space="preserve">Expected Output</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">Image Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Models output Remarks</t>
+    <t xml:space="preserve">Models output (Raw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Output (Processed)</t>
   </si>
   <si>
     <t xml:space="preserve">0a0ebd53.jpeg</t>
@@ -202,6 +205,12 @@
     <t xml:space="preserve">Blury</t>
   </si>
   <si>
+    <t xml:space="preserve">03/Jul/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-07-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">2fdd6a08.jpeg</t>
   </si>
   <si>
@@ -1234,6 +1243,9 @@
     <t xml:space="preserve">2018-01-28</t>
   </si>
   <si>
+    <t xml:space="preserve">jan 28, 2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">a26adf55.jpeg</t>
   </si>
   <si>
@@ -1651,6 +1663,9 @@
     <t xml:space="preserve">Slanting + Blury</t>
   </si>
   <si>
+    <t xml:space="preserve">December 29 2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">cec9988c.jpeg</t>
   </si>
   <si>
@@ -1856,6 +1871,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dul 1, 2019</t>
   </si>
   <si>
     <t xml:space="preserve">dbc70af6.jpeg</t>
@@ -2312,15 +2330,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2337,112 +2357,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2450,23 +2374,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2490,25 +2399,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2517,92 +2409,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2612,13 +2431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F596"/>
+  <dimension ref="A1:G596"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A536" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F554" activeCellId="0" sqref="F554"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2628,8 +2449,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,8 +2467,11 @@
       <c r="E1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2479,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,10 +2490,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,10 +2501,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,10 +2512,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2523,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,10 +2534,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +2545,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,10 +2556,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +2567,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +2578,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +2600,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,10 +2611,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2622,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,7 +2630,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,7 +2646,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,7 +2654,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,7 +2662,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,7 +2670,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,7 +2678,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,7 +2686,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2694,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,7 +2710,7 @@
         <v>78</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,7 +2718,7 @@
         <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,7 +2726,7 @@
         <v>81</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,7 +2734,7 @@
         <v>79</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,7 +2742,7 @@
         <v>82</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,10 +2750,10 @@
         <v>83</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2761,10 @@
         <v>85</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,7 +2772,7 @@
         <v>84</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,7 +2780,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,7 +2796,7 @@
         <v>87</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,7 +2804,7 @@
         <v>89</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,10 +2812,10 @@
         <v>90</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +2823,7 @@
         <v>91</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,13 +2831,19 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +2851,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,7 +2859,7 @@
         <v>119</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,7 +2867,7 @@
         <v>120</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,10 +2875,10 @@
         <v>121</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,13 +2886,19 @@
         <v>122</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,13 +2906,13 @@
         <v>123</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,7 +2920,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,13 +2928,13 @@
         <v>125</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +2942,7 @@
         <v>130</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +2950,7 @@
         <v>148</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +2958,7 @@
         <v>149</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,13 +2966,13 @@
         <v>150</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,13 +2980,13 @@
         <v>153</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +2994,7 @@
         <v>151</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3002,7 @@
         <v>152</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3010,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,7 +3018,7 @@
         <v>156</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3026,7 @@
         <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,7 +3034,7 @@
         <v>157</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3042,7 @@
         <v>158</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3050,10 @@
         <v>161</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3069,7 @@
         <v>162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3077,7 @@
         <v>163</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,7 +3085,7 @@
         <v>164</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3093,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3101,7 @@
         <v>165</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3109,7 @@
         <v>166</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3117,7 @@
         <v>183</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3125,7 @@
         <v>184</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +3133,7 @@
         <v>185</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,7 +3141,7 @@
         <v>186</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,7 +3149,7 @@
         <v>187</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3157,7 @@
         <v>188</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3165,7 @@
         <v>189</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3173,7 @@
         <v>191</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3181,7 @@
         <v>190</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3189,7 @@
         <v>192</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,7 +3197,7 @@
         <v>193</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3205,7 @@
         <v>195</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3213,7 @@
         <v>194</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3221,7 @@
         <v>196</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,7 +3229,7 @@
         <v>197</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,7 +3237,7 @@
         <v>15</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3245,7 @@
         <v>199</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +3253,7 @@
         <v>200</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,7 +3261,7 @@
         <v>201</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,7 +3269,7 @@
         <v>223</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3277,7 @@
         <v>222</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,7 +3285,7 @@
         <v>224</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3293,7 @@
         <v>225</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +3301,7 @@
         <v>226</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3309,7 @@
         <v>227</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,7 +3317,7 @@
         <v>228</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +3325,7 @@
         <v>229</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,7 +3333,7 @@
         <v>232</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,7 +3341,7 @@
         <v>233</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,7 +3349,7 @@
         <v>259</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,7 +3357,7 @@
         <v>260</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3365,7 @@
         <v>261</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,7 +3373,7 @@
         <v>262</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3381,7 @@
         <v>263</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3389,7 @@
         <v>264</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +3397,7 @@
         <v>267</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,7 +3405,7 @@
         <v>268</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3413,7 @@
         <v>269</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +3421,7 @@
         <v>298</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,7 +3429,7 @@
         <v>299</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3437,7 @@
         <v>300</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3445,7 @@
         <v>301</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +3453,7 @@
         <v>302</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,7 +3461,7 @@
         <v>303</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,7 +3469,7 @@
         <v>308</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3477,7 @@
         <v>336</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3648,7 +3485,7 @@
         <v>337</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,7 +3493,7 @@
         <v>338</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,7 +3501,7 @@
         <v>339</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +3509,7 @@
         <v>340</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,7 +3517,7 @@
         <v>341</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +3525,7 @@
         <v>342</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +3533,7 @@
         <v>343</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +3541,7 @@
         <v>346</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,7 +3549,7 @@
         <v>344</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,7 +3557,7 @@
         <v>345</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,7 +3565,7 @@
         <v>347</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,7 +3573,7 @@
         <v>348</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +3581,7 @@
         <v>351</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,7 +3589,7 @@
         <v>349</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,7 +3597,7 @@
         <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,7 +3605,7 @@
         <v>352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,7 +3613,7 @@
         <v>353</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,7 +3621,7 @@
         <v>33</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,7 +3629,7 @@
         <v>38</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,7 +3645,7 @@
         <v>43</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,7 +3653,7 @@
         <v>44</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,7 +3661,7 @@
         <v>48</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,7 +3669,7 @@
         <v>64</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3677,7 @@
         <v>71</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,7 +3685,7 @@
         <v>72</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,7 +3693,7 @@
         <v>76</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3701,7 @@
         <v>77</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3717,7 @@
         <v>101</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3725,7 @@
         <v>102</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,7 +3733,7 @@
         <v>105</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3741,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +3749,7 @@
         <v>117</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3757,7 @@
         <v>136</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3765,7 @@
         <v>137</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +3773,7 @@
         <v>139</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,7 +3781,7 @@
         <v>138</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +3789,7 @@
         <v>140</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +3797,7 @@
         <v>143</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,7 +3813,7 @@
         <v>170</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,7 +3821,7 @@
         <v>171</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,7 +3829,7 @@
         <v>172</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,7 +3837,7 @@
         <v>177</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,7 +3845,7 @@
         <v>181</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,7 +3853,7 @@
         <v>180</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,7 +3861,7 @@
         <v>205</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,7 +3869,7 @@
         <v>206</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +3877,7 @@
         <v>208</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,7 +3885,7 @@
         <v>211</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,7 +3893,7 @@
         <v>212</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,7 +3901,7 @@
         <v>214</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,7 +3909,7 @@
         <v>218</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,7 +3925,7 @@
         <v>235</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,7 +3933,7 @@
         <v>236</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,7 +3941,7 @@
         <v>242</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,7 +3949,7 @@
         <v>243</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4120,7 +3957,7 @@
         <v>249</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +3965,7 @@
         <v>254</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +3973,7 @@
         <v>257</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,7 +3981,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,7 +3989,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,7 +3997,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4005,7 @@
         <v>279</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4013,7 @@
         <v>280</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4021,7 @@
         <v>282</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,7 +4029,7 @@
         <v>287</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +4037,7 @@
         <v>288</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,7 +4045,7 @@
         <v>290</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4053,7 @@
         <v>296</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4061,7 @@
         <v>297</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4069,7 @@
         <v>313</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +4077,7 @@
         <v>319</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4085,7 @@
         <v>322</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4093,7 @@
         <v>324</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,7 +4101,7 @@
         <v>325</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,7 +4109,7 @@
         <v>326</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4117,7 @@
         <v>329</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4125,7 @@
         <v>31</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4133,7 @@
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +4141,7 @@
         <v>40</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,7 +4149,7 @@
         <v>41</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +4165,7 @@
         <v>42</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,7 +4173,7 @@
         <v>47</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,7 +4181,7 @@
         <v>65</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,7 +4189,7 @@
         <v>67</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4197,7 @@
         <v>126</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +4205,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,7 +4213,7 @@
         <v>95</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4221,7 @@
         <v>96</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4229,7 @@
         <v>98</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +4237,7 @@
         <v>103</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4245,7 @@
         <v>106</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4261,7 @@
         <v>8</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4269,7 @@
         <v>110</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,7 +4277,7 @@
         <v>113</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4285,7 @@
         <v>115</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,7 +4301,7 @@
         <v>131</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4309,7 @@
         <v>134</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,7 +4317,7 @@
         <v>142</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,7 +4325,7 @@
         <v>167</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4333,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,7 +4341,7 @@
         <v>175</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,7 +4349,7 @@
         <v>176</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4357,7 @@
         <v>202</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,7 +4365,7 @@
         <v>203</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,7 +4373,7 @@
         <v>209</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +4381,7 @@
         <v>210</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,7 +4389,7 @@
         <v>213</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4397,7 @@
         <v>220</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,7 +4405,7 @@
         <v>221</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,7 +4413,7 @@
         <v>234</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4421,7 @@
         <v>239</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4429,7 @@
         <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +4437,7 @@
         <v>248</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4445,7 @@
         <v>251</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4453,7 @@
         <v>271</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4461,7 @@
         <v>276</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +4469,7 @@
         <v>295</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4477,7 @@
         <v>309</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,7 +4485,7 @@
         <v>312</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +4493,7 @@
         <v>320</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,7 +4501,7 @@
         <v>330</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4509,7 @@
         <v>334</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4517,7 @@
         <v>335</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4525,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4533,7 @@
         <v>34</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +4541,7 @@
         <v>70</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +4549,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +4557,7 @@
         <v>107</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,7 +4565,7 @@
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,7 +4573,7 @@
         <v>145</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4589,7 @@
         <v>146</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +4597,7 @@
         <v>168</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4605,7 @@
         <v>178</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4613,7 @@
         <v>179</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4621,7 @@
         <v>217</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,7 +4629,7 @@
         <v>241</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4637,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4645,7 @@
         <v>277</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,7 +4653,7 @@
         <v>281</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4661,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +4669,7 @@
         <v>285</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +4677,7 @@
         <v>293</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4685,7 @@
         <v>311</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4693,7 @@
         <v>314</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4701,7 @@
         <v>315</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +4709,7 @@
         <v>321</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +4717,7 @@
         <v>333</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +4725,7 @@
         <v>37</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +4741,7 @@
         <v>62</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +4749,7 @@
         <v>69</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +4757,7 @@
         <v>74</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +4765,7 @@
         <v>128</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +4773,7 @@
         <v>93</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +4781,7 @@
         <v>116</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4789,7 @@
         <v>159</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +4797,7 @@
         <v>174</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +4805,7 @@
         <v>204</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +4813,7 @@
         <v>216</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +4821,7 @@
         <v>219</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,7 +4829,7 @@
         <v>237</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,7 +4837,7 @@
         <v>238</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +4845,7 @@
         <v>244</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +4853,7 @@
         <v>245</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +4861,7 @@
         <v>247</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +4869,7 @@
         <v>270</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +4877,7 @@
         <v>274</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +4885,7 @@
         <v>278</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +4893,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +4901,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +4909,7 @@
         <v>310</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +4917,7 @@
         <v>323</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +4925,7 @@
         <v>328</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +4933,7 @@
         <v>73</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +4941,7 @@
         <v>75</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +4949,7 @@
         <v>99</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +4957,7 @@
         <v>111</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +4965,7 @@
         <v>114</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +4973,7 @@
         <v>173</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +4981,7 @@
         <v>230</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +4989,7 @@
         <v>207</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +4997,7 @@
         <v>240</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5005,7 @@
         <v>253</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5013,7 @@
         <v>255</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5021,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5029,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5037,7 @@
         <v>316</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +5045,7 @@
         <v>318</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5053,7 @@
         <v>331</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5061,7 @@
         <v>332</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,7 +5077,7 @@
         <v>35</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +5085,7 @@
         <v>94</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,7 +5093,7 @@
         <v>133</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +5101,7 @@
         <v>147</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,7 +5109,7 @@
         <v>231</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,7 +5117,7 @@
         <v>246</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5125,7 @@
         <v>250</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,7 +5133,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5141,7 @@
         <v>286</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5149,7 @@
         <v>68</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,7 +5157,7 @@
         <v>97</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5165,7 @@
         <v>109</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +5173,7 @@
         <v>112</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5181,7 @@
         <v>160</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,7 +5189,7 @@
         <v>135</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +5197,7 @@
         <v>141</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5205,7 @@
         <v>252</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5213,7 @@
         <v>307</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +5221,7 @@
         <v>129</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5229,7 @@
         <v>104</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5237,7 @@
         <v>118</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5245,7 @@
         <v>182</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +5253,7 @@
         <v>18</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +5261,7 @@
         <v>108</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5269,7 @@
         <v>46</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +5277,7 @@
         <v>66</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +5285,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,7 +5293,7 @@
         <v>317</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5301,7 @@
         <v>88</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5309,7 @@
         <v>258</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +5317,7 @@
         <v>291</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5325,7 @@
         <v>198</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5333,7 @@
         <v>265</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +5341,7 @@
         <v>132</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5349,7 @@
         <v>63</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5357,7 @@
         <v>32</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +5365,7 @@
         <v>327</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +5373,7 @@
         <v>55</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5381,7 @@
         <v>304</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5389,7 @@
         <v>266</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +5397,7 @@
         <v>215</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,7 +5405,7 @@
         <v>292</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5413,7 @@
         <v>358</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,16 +5421,16 @@
         <v>360</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,16 +5438,16 @@
         <v>362</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,7 +5455,7 @@
         <v>364</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,7 +5463,7 @@
         <v>365</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,7 +5471,7 @@
         <v>368</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5479,7 @@
         <v>371</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,7 +5487,7 @@
         <v>374</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,7 +5495,7 @@
         <v>375</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,7 +5503,7 @@
         <v>376</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,7 +5511,7 @@
         <v>355</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,13 +5519,19 @@
         <v>356</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G367" s="2" t="n">
+        <v>40206</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5539,7 @@
         <v>361</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5547,7 @@
         <v>366</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5555,7 @@
         <v>367</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5563,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5571,7 @@
         <v>373</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +5579,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,13 +5587,13 @@
         <v>363</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,7 +5601,7 @@
         <v>357</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,7 +5609,7 @@
         <v>354</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,7 +5617,7 @@
         <v>370</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,13 +5625,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5639,7 @@
         <v>359</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +5647,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,7 +5655,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,7 +5663,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,7 +5671,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,16 +5679,16 @@
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,7 +5696,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,7 +5704,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,7 +5712,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,13 +5720,13 @@
         <v>385</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5891,7 +5734,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,7 +5742,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,7 +5750,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,7 +5758,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,13 +5766,13 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,7 +5780,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,16 +5788,16 @@
         <v>395</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,16 +5805,16 @@
         <v>396</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,7 +5822,7 @@
         <v>398</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,7 +5830,7 @@
         <v>404</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,7 +5838,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,7 +5846,7 @@
         <v>410</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,16 +5854,16 @@
         <v>411</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,7 +5871,7 @@
         <v>412</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6036,7 +5879,7 @@
         <v>413</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,7 +5887,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,7 +5895,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,7 +5903,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,7 +5911,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,7 +5919,7 @@
         <v>393</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +5927,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,7 +5935,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,7 +5943,7 @@
         <v>400</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,7 +5951,7 @@
         <v>402</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,7 +5959,7 @@
         <v>397</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,7 +5967,7 @@
         <v>401</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,7 +5975,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,7 +5983,7 @@
         <v>408</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,13 +5991,13 @@
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,7 +6005,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,16 +6013,16 @@
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,7 +6030,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,7 +6038,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,7 +6046,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,7 +6054,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,7 +6062,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6070,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,7 +6078,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,13 +6086,13 @@
         <v>428</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +6100,7 @@
         <v>432</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,16 +6108,16 @@
         <v>437</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6125,7 @@
         <v>438</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C430" s="0"/>
       <c r="D430" s="0"/>
@@ -6292,7 +6135,7 @@
         <v>446</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,16 +6143,16 @@
         <v>448</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,7 +6160,7 @@
         <v>449</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,7 +6168,7 @@
         <v>450</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6333,7 +6176,7 @@
         <v>424</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,7 +6184,7 @@
         <v>429</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,13 +6192,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,13 +6206,13 @@
         <v>439</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,7 +6220,7 @@
         <v>443</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,7 +6228,7 @@
         <v>444</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,16 +6236,16 @@
         <v>445</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6410,7 +6253,7 @@
         <v>447</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6418,7 +6261,7 @@
         <v>431</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,7 +6269,7 @@
         <v>435</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,7 +6277,7 @@
         <v>426</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,7 +6285,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6450,7 +6293,7 @@
         <v>434</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6301,7 @@
         <v>430</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,7 +6309,7 @@
         <v>433</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6474,16 +6317,16 @@
         <v>441</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,7 +6334,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,7 +6342,7 @@
         <v>440</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +6350,7 @@
         <v>427</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,16 +6358,16 @@
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,13 +6375,22 @@
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G455" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,13 +6398,13 @@
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,7 +6412,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,13 +6420,13 @@
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6582,7 +6434,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6442,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,16 +6450,16 @@
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,7 +6467,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,16 +6475,22 @@
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G463" s="2" t="n">
+        <v>43463</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +6498,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,16 +6506,16 @@
         <v>465</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,16 +6523,16 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,16 +6540,16 @@
         <v>463</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,7 +6557,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,7 +6565,7 @@
         <v>474</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,16 +6573,16 @@
         <v>475</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,7 +6590,7 @@
         <v>479</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,16 +6598,16 @@
         <v>468</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,16 +6615,16 @@
         <v>484</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,7 +6632,7 @@
         <v>491</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,7 +6640,7 @@
         <v>494</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,7 +6648,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,7 +6656,7 @@
         <v>469</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,7 +6664,7 @@
         <v>480</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,7 +6672,7 @@
         <v>483</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,7 +6680,7 @@
         <v>485</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,7 +6688,7 @@
         <v>487</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6838,16 +6696,16 @@
         <v>473</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,7 +6713,7 @@
         <v>488</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C483" s="0"/>
       <c r="D483" s="0"/>
@@ -6865,16 +6723,16 @@
         <v>467</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6882,16 +6740,16 @@
         <v>478</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,7 +6757,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +6765,7 @@
         <v>489</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6915,7 +6773,7 @@
         <v>470</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,7 +6781,7 @@
         <v>471</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,13 +6789,13 @@
         <v>481</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6945,7 +6803,7 @@
         <v>486</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,7 +6811,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6961,7 +6819,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,7 +6827,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,7 +6835,7 @@
         <v>477</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,7 +6843,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,7 +6851,7 @@
         <v>472</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,7 +6859,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,16 +6867,16 @@
         <v>498</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7026,16 +6884,16 @@
         <v>496</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7043,7 +6901,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,13 +6909,13 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,13 +6923,16 @@
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,13 +6940,13 @@
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,16 +6954,16 @@
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,7 +6971,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,7 +6979,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7126,7 +6987,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,7 +6995,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,7 +7003,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7150,7 +7011,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,7 +7019,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,13 +7027,13 @@
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,7 +7041,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7049,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7196,7 +7057,7 @@
         <v>522</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,7 +7065,7 @@
         <v>523</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,7 +7073,7 @@
         <v>525</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,7 +7081,7 @@
         <v>526</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7228,7 +7089,7 @@
         <v>533</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,7 +7097,7 @@
         <v>534</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,16 +7105,16 @@
         <v>538</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7261,16 +7122,16 @@
         <v>541</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7278,7 +7139,7 @@
         <v>543</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7286,7 +7147,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7294,16 +7155,16 @@
         <v>528</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,7 +7172,7 @@
         <v>532</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,16 +7180,16 @@
         <v>514</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,7 +7197,7 @@
         <v>516</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,7 +7205,7 @@
         <v>531</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7352,7 +7213,7 @@
         <v>537</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,7 +7221,7 @@
         <v>539</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,16 +7229,16 @@
         <v>519</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7385,16 +7246,16 @@
         <v>527</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7402,16 +7263,16 @@
         <v>530</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,16 +7280,16 @@
         <v>535</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,16 +7297,16 @@
         <v>518</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,16 +7314,16 @@
         <v>520</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7470,16 +7331,16 @@
         <v>521</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,7 +7348,7 @@
         <v>536</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,16 +7356,16 @@
         <v>540</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7512,16 +7373,16 @@
         <v>542</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7529,7 +7390,7 @@
         <v>517</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,7 +7398,7 @@
         <v>529</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,7 +7406,7 @@
         <v>515</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7553,7 +7414,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7561,7 +7422,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,13 +7430,16 @@
         <v>548</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>686</v>
+        <v>692</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,7 +7447,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7591,7 +7455,7 @@
         <v>547</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,16 +7463,16 @@
         <v>546</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,7 +7480,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7624,19 +7488,19 @@
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F553" s="0" t="s">
-        <v>696</v>
+        <v>394</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,16 +7508,16 @@
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,7 +7525,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,7 +7533,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7677,7 +7541,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +7549,7 @@
         <v>560</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +7557,7 @@
         <v>561</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,7 +7565,7 @@
         <v>569</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,16 +7573,16 @@
         <v>574</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,16 +7590,16 @@
         <v>557</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7743,7 +7607,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,16 +7615,16 @@
         <v>564</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,16 +7632,16 @@
         <v>566</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,7 +7649,7 @@
         <v>568</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7793,7 +7657,7 @@
         <v>571</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,7 +7665,7 @@
         <v>556</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,7 +7673,7 @@
         <v>565</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,7 +7681,7 @@
         <v>572</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,16 +7689,16 @@
         <v>573</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,7 +7706,7 @@
         <v>558</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,7 +7714,7 @@
         <v>559</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7858,16 +7722,16 @@
         <v>570</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,16 +7739,16 @@
         <v>562</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7892,7 +7756,7 @@
         <v>567</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7900,7 +7764,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7908,7 +7772,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,7 +7780,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,7 +7788,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7932,7 +7796,7 @@
         <v>577</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7940,16 +7804,16 @@
         <v>578</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="F582" s="0" t="s">
-        <v>742</v>
+        <v>747</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,7 +7821,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7965,19 +7829,19 @@
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F584" s="0" t="s">
-        <v>696</v>
+        <v>509</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7985,7 +7849,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,16 +7857,16 @@
         <v>585</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,7 +7874,7 @@
         <v>583</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,7 +7882,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,7 +7890,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8034,7 +7898,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8042,7 +7906,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,7 +7914,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,7 +7922,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8066,7 +7930,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,7 +7938,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8082,101 +7946,11 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C586">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="01/12/19"/>
-        <filter val="02/07/2019"/>
-        <filter val="03/03/2015"/>
-        <filter val="03/07/2019"/>
-        <filter val="03/12/19"/>
-        <filter val="03/Jun/2019"/>
-        <filter val="04/13/2019"/>
-        <filter val="05/04/19"/>
-        <filter val="05/07/2019"/>
-        <filter val="06/01/19"/>
-        <filter val="06/02/2019"/>
-        <filter val="06/03/19"/>
-        <filter val="06/03/2019"/>
-        <filter val="06/05/2019"/>
-        <filter val="06/06/19"/>
-        <filter val="06/11/19"/>
-        <filter val="06/16/2019"/>
-        <filter val="06/17/2019"/>
-        <filter val="06/20/19"/>
-        <filter val="06/26/2019"/>
-        <filter val="06/29/19"/>
-        <filter val="07-Jun-2019"/>
-        <filter val="07/06/19"/>
-        <filter val="07/08/19"/>
-        <filter val="07/09/19"/>
-        <filter val="07/28/18"/>
-        <filter val="08/05/2019"/>
-        <filter val="08/07/19"/>
-        <filter val="09/25/18"/>
-        <filter val="1"/>
-        <filter val="10/05/19"/>
-        <filter val="10/25/2017"/>
-        <filter val="10/6/19"/>
-        <filter val="11/06/19"/>
-        <filter val="12/28/2017"/>
-        <filter val="12/Jul/2019"/>
-        <filter val="12MAR’19"/>
-        <filter val="13-06-2019"/>
-        <filter val="13-07-19"/>
-        <filter val="13-4-19"/>
-        <filter val="14-5-201"/>
-        <filter val="15/06/2019"/>
-        <filter val="17/05/2019"/>
-        <filter val="17/07/2019"/>
-        <filter val="18/06/2019"/>
-        <filter val="18/07/2019"/>
-        <filter val="2013-08-10"/>
-        <filter val="22-06-2019"/>
-        <filter val="22.05.2019"/>
-        <filter val="22/05/2019"/>
-        <filter val="22/5/19"/>
-        <filter val="23-07-19"/>
-        <filter val="23/05/2019"/>
-        <filter val="23/06/2019"/>
-        <filter val="25-07-19"/>
-        <filter val="25-Jul-2019"/>
-        <filter val="25/7/19"/>
-        <filter val="25AUG’17"/>
-        <filter val="27-Jun-19"/>
-        <filter val="27/5/19"/>
-        <filter val="28 Jun 2019"/>
-        <filter val="28-05-19"/>
-        <filter val="28-Jun-2019"/>
-        <filter val="28/06/2019"/>
-        <filter val="29-6-2019"/>
-        <filter val="29-MAY-2019"/>
-        <filter val="29/05/2019"/>
-        <filter val="30.04.2019"/>
-        <filter val="31/05/19"/>
-        <filter val="31/05/2019"/>
-        <filter val="31/5/19"/>
-        <filter val="5/15/2019"/>
-        <filter val="5/4/2017"/>
-        <filter val="6/1/19"/>
-        <filter val="6/24/2018"/>
-        <filter val="6/28/2019"/>
-        <filter val="6/3/2019"/>
-        <filter val="7/2/2019"/>
-        <filter val="Apr07’16"/>
-        <filter val="December 29, 2018"/>
-        <filter val="Jan 28, 2018"/>
-        <filter val="Jul 1, 2019"/>
-        <filter val="NaN"/>
-        <filter val="Sep 29, 2018"/>
-        <filter val="Sep07’18"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C586"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/meta data.xlsx
+++ b/meta data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="824">
   <si>
     <t xml:space="preserve">Expected Output</t>
   </si>
@@ -118,51 +118,120 @@
     <t xml:space="preserve">1ae93f0a.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">29-07-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-29</t>
+  </si>
+  <si>
     <t xml:space="preserve">1afb9648.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">22/05/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">1b0a9723.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">19/07/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">1cd9dfed.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun 1, 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">1d900ca2.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">09-Jul-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">1ed34833.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">ov-15-06-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Written</t>
+  </si>
+  <si>
     <t xml:space="preserve">1f6a12e7.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">17-Feb-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low res</t>
+  </si>
+  <si>
     <t xml:space="preserve">1f9bdf4a.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/06/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">1f880ba4.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">24/06/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slanting + Bad Quality</t>
+  </si>
+  <si>
     <t xml:space="preserve">1f2e0222.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">10-20-2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">02acce30.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Oct06’16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slanting</t>
+  </si>
+  <si>
     <t xml:space="preserve">2ad1b322.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/29/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">2b577c41.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">02-Mar 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">2b931f74.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Mar18’18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slanting + Shadow</t>
+  </si>
+  <si>
     <t xml:space="preserve">2b4713c8.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">24May’19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overritten </t>
+  </si>
+  <si>
     <t xml:space="preserve">2bbb8522.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">24-07-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bdd2396.jpeg</t>
   </si>
   <si>
@@ -175,36 +244,60 @@
     <t xml:space="preserve">06/29/19</t>
   </si>
   <si>
+    <t xml:space="preserve">Conjusted Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">2c500858.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">5/26/2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">2d27a624.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">21/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blury</t>
+  </si>
+  <si>
     <t xml:space="preserve">02d54805.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">5/29/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">2de48561.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">17/05/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">2edff68d.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">6/15/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creeze</t>
+  </si>
+  <si>
     <t xml:space="preserve">2ef79975.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">13-06-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Faded</t>
+  </si>
+  <si>
     <t xml:space="preserve">2f36db66.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">02f4068e.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Blury</t>
-  </si>
-  <si>
     <t xml:space="preserve">03/Jul/2019</t>
   </si>
   <si>
@@ -214,12 +307,24 @@
     <t xml:space="preserve">2fdd6a08.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/04/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">3bce4b60.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">6/27/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Quality</t>
+  </si>
+  <si>
     <t xml:space="preserve">3bf18630.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">June 16, 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">3bfa05ad.jpeg</t>
   </si>
   <si>
@@ -232,21 +337,18 @@
     <t xml:space="preserve">23/05/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Faded</t>
-  </si>
-  <si>
     <t xml:space="preserve">3cdec471.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">10/6/19</t>
   </si>
   <si>
-    <t xml:space="preserve">Hand Written</t>
-  </si>
-  <si>
     <t xml:space="preserve">3d06f10e.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">03/25/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">3deff9fb.jpeg</t>
   </si>
   <si>
@@ -262,9 +364,15 @@
     <t xml:space="preserve">4a9af216.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/03/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">4abb6285.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/15/2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">4af6d4a7.jpeg</t>
   </si>
   <si>
@@ -280,12 +388,21 @@
     <t xml:space="preserve">4b1911d2.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">05-11-2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">4b494298.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Aug 18, 2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">4bdd80e2.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">25-07-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">4d79fcf2.jpeg</t>
   </si>
   <si>
@@ -295,9 +412,15 @@
     <t xml:space="preserve">4da45cc9.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/02/15</t>
+  </si>
+  <si>
     <t xml:space="preserve">4dddf1eb.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/07/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">4ec4559a.jpeg</t>
   </si>
   <si>
@@ -307,69 +430,135 @@
     <t xml:space="preserve">04f988a3.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">22/Jul/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">4f58927d.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">05/11/18</t>
+  </si>
+  <si>
     <t xml:space="preserve">4f692e69.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">11-07-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">4fa1fc56.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">04fa5e11.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/22/2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">4fdb8f6a.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">05/16/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">4fef1c7e.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">10-07-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5afb1261.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">14/06/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5b0d6748.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">02/22/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">5b6ee5a0.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">12/29/2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">5bb556be.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">1/06/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">5bd0d02d.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">6/5/17</t>
+  </si>
+  <si>
     <t xml:space="preserve">5c2b38f0.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">-18-07-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5c3075ae.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/10/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5c79316b.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/01/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">5c670322.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/16/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folded</t>
+  </si>
+  <si>
     <t xml:space="preserve">5ca33654.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">26/04/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">5cb08cab.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-06-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">5d63f1a2.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/16/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">5d069db5.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">12/07/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5d80cb45.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">16/07/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5dca8c72.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">19/6/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">05f91a79.jpeg</t>
   </si>
   <si>
@@ -856,6 +1045,9 @@
     <t xml:space="preserve">1e3d07aa.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">21/5</t>
+  </si>
+  <si>
     <t xml:space="preserve">1171a5da.jpeg</t>
   </si>
   <si>
@@ -955,6 +1147,9 @@
     <t xml:space="preserve">4e4b0d9c.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">6/05/19</t>
+  </si>
+  <si>
     <t xml:space="preserve">55291d91.jpeg</t>
   </si>
   <si>
@@ -1102,6 +1297,9 @@
     <t xml:space="preserve">4e7babf5.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">04/Jul/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">41879403.jpeg</t>
   </si>
   <si>
@@ -1156,6 +1354,9 @@
     <t xml:space="preserve">5e43dac3.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Aug23’19</t>
+  </si>
+  <si>
     <t xml:space="preserve">7e60a259.jpeg</t>
   </si>
   <si>
@@ -1174,6 +1375,9 @@
     <t xml:space="preserve">1e288e8c.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07-06-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">8e16764a.jpeg</t>
   </si>
   <si>
@@ -1195,9 +1399,6 @@
     <t xml:space="preserve">28/06/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-06-28</t>
-  </si>
-  <si>
     <t xml:space="preserve">a2ce1b5e.jpeg</t>
   </si>
   <si>
@@ -1207,9 +1408,6 @@
     <t xml:space="preserve">2019-12-03</t>
   </si>
   <si>
-    <t xml:space="preserve">Slanting</t>
-  </si>
-  <si>
     <t xml:space="preserve">a3dbcdaa.jpeg</t>
   </si>
   <si>
@@ -1360,9 +1558,6 @@
     <t xml:space="preserve">2013-08-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Creeze</t>
-  </si>
-  <si>
     <t xml:space="preserve">b1c64bac.jpeg</t>
   </si>
   <si>
@@ -1450,9 +1645,6 @@
     <t xml:space="preserve">2019-07-18</t>
   </si>
   <si>
-    <t xml:space="preserve">Overritten </t>
-  </si>
-  <si>
     <t xml:space="preserve">bbe8febc.jpeg</t>
   </si>
   <si>
@@ -1552,9 +1744,6 @@
     <t xml:space="preserve">2019-07-25</t>
   </si>
   <si>
-    <t xml:space="preserve">Folded</t>
-  </si>
-  <si>
     <t xml:space="preserve">c99a6da9.jpeg</t>
   </si>
   <si>
@@ -1597,9 +1786,6 @@
     <t xml:space="preserve">ca7a837e.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">06/06/19</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-06-06</t>
   </si>
   <si>
@@ -1684,9 +1870,6 @@
     <t xml:space="preserve">cf332c79.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">17/05/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-05-17</t>
   </si>
   <si>
@@ -1765,9 +1948,6 @@
     <t xml:space="preserve">2019-09-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Slanting + Bad Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">d48e2bc0.jpeg</t>
   </si>
   <si>
@@ -1789,9 +1969,6 @@
     <t xml:space="preserve">25-07-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Bad Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">d37231f3.jpeg</t>
   </si>
   <si>
@@ -1840,9 +2017,6 @@
     <t xml:space="preserve">da2bf0dd.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">06/03/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Highlited</t>
   </si>
   <si>
@@ -2276,9 +2450,6 @@
   </si>
   <si>
     <t xml:space="preserve">fb939620.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/16/2019</t>
   </si>
   <si>
     <t xml:space="preserve">2019-06-16</t>
@@ -2330,10 +2501,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2400,7 +2572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2409,7 +2581,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2431,15 +2611,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G596"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2617,132 +2797,201 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>81</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>79</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>82</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +2999,10 @@
         <v>83</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,50 +3010,74 @@
         <v>85</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>84</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>86</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>87</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,18 +3085,24 @@
         <v>90</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>91</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,43 +3110,55 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>119</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>120</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,10 +3166,10 @@
         <v>121</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,19 +3177,19 @@
         <v>122</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,21 +3197,24 @@
         <v>123</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>124</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,37 +3222,46 @@
         <v>125</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>130</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>148</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>149</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>79</v>
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,13 +3269,13 @@
         <v>150</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,69 +3283,93 @@
         <v>153</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>151</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>152</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>156</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>157</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>158</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>90</v>
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,186 +3377,273 @@
         <v>161</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>163</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>164</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>165</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>166</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>183</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>184</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>185</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>186</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>187</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>188</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>189</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>191</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>190</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>192</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>193</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>195</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>194</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>196</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>197</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>114</v>
+        <v>176</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,7 +3651,7 @@
         <v>15</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3659,7 @@
         <v>199</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3667,7 @@
         <v>200</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3675,7 @@
         <v>201</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,7 +3683,7 @@
         <v>223</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3691,7 @@
         <v>222</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3699,7 @@
         <v>224</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,7 +3707,7 @@
         <v>225</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3715,7 @@
         <v>226</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3723,7 @@
         <v>227</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3731,7 @@
         <v>228</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,7 +3739,7 @@
         <v>229</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,7 +3747,7 @@
         <v>232</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3755,7 @@
         <v>233</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,7 +3763,7 @@
         <v>259</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3771,7 @@
         <v>260</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3779,7 @@
         <v>261</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +3787,7 @@
         <v>262</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,7 +3795,7 @@
         <v>263</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,7 +3803,7 @@
         <v>264</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,7 +3811,7 @@
         <v>267</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,7 +3819,7 @@
         <v>268</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3827,7 @@
         <v>269</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,7 +3835,7 @@
         <v>298</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3843,7 @@
         <v>299</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,7 +3851,7 @@
         <v>300</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3859,7 @@
         <v>301</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3867,7 @@
         <v>302</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3875,7 @@
         <v>303</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3883,7 @@
         <v>308</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,7 +3891,7 @@
         <v>336</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3899,7 @@
         <v>337</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,7 +3907,7 @@
         <v>338</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,7 +3915,7 @@
         <v>339</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,7 +3923,7 @@
         <v>340</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,7 +3931,7 @@
         <v>341</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,7 +3939,7 @@
         <v>342</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,7 +3947,7 @@
         <v>343</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,7 +3955,7 @@
         <v>346</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,7 +3963,7 @@
         <v>344</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3971,7 @@
         <v>345</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,7 +3979,7 @@
         <v>347</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +3987,7 @@
         <v>348</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,7 +3995,7 @@
         <v>351</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,7 +4003,7 @@
         <v>349</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +4011,7 @@
         <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,7 +4019,7 @@
         <v>352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,7 +4027,7 @@
         <v>353</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,7 +4035,7 @@
         <v>33</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,7 +4051,7 @@
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +4059,7 @@
         <v>43</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,7 +4075,7 @@
         <v>48</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,7 +4083,7 @@
         <v>64</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,7 +4091,7 @@
         <v>71</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,7 +4099,7 @@
         <v>72</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,7 +4115,7 @@
         <v>77</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,7 +4123,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +4131,7 @@
         <v>101</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +4139,7 @@
         <v>102</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,7 +4147,7 @@
         <v>105</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +4155,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,7 +4163,7 @@
         <v>117</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,7 +4171,7 @@
         <v>136</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,7 +4179,7 @@
         <v>137</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,7 +4187,7 @@
         <v>139</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +4195,7 @@
         <v>138</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,7 +4203,7 @@
         <v>140</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,7 +4211,7 @@
         <v>143</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,7 +4227,7 @@
         <v>170</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,7 +4235,7 @@
         <v>171</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +4243,7 @@
         <v>172</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,7 +4251,7 @@
         <v>177</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,7 +4259,7 @@
         <v>181</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,7 +4267,7 @@
         <v>180</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +4275,7 @@
         <v>205</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,7 +4283,7 @@
         <v>206</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,7 +4291,7 @@
         <v>208</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,7 +4299,7 @@
         <v>211</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +4307,7 @@
         <v>212</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +4315,7 @@
         <v>214</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,7 +4323,7 @@
         <v>218</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,7 +4331,7 @@
         <v>16</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +4339,7 @@
         <v>235</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,7 +4347,7 @@
         <v>236</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,7 +4355,7 @@
         <v>242</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +4363,7 @@
         <v>243</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,7 +4371,7 @@
         <v>249</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,7 +4379,7 @@
         <v>254</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,7 +4387,7 @@
         <v>257</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,7 +4395,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,7 +4403,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4411,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,7 +4419,7 @@
         <v>279</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4427,7 @@
         <v>280</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,7 +4435,7 @@
         <v>282</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,7 +4443,7 @@
         <v>287</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,7 +4451,7 @@
         <v>288</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4459,7 @@
         <v>290</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,7 +4467,7 @@
         <v>296</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4475,7 @@
         <v>297</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,7 +4483,7 @@
         <v>313</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4491,7 @@
         <v>319</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,7 +4499,7 @@
         <v>322</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,7 +4507,7 @@
         <v>324</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,7 +4515,7 @@
         <v>325</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,7 +4523,7 @@
         <v>326</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4531,7 @@
         <v>329</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4539,7 @@
         <v>31</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,7 +4555,7 @@
         <v>40</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,7 +4563,7 @@
         <v>41</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,7 +4579,7 @@
         <v>42</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4587,7 @@
         <v>47</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,7 +4595,7 @@
         <v>65</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,15 +4603,18 @@
         <v>67</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>126</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>235</v>
+        <v>298</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,7 +4630,7 @@
         <v>95</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4638,7 @@
         <v>96</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4646,7 @@
         <v>98</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,7 +4654,7 @@
         <v>103</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,7 +4662,7 @@
         <v>106</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,7 +4670,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4686,7 @@
         <v>110</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,7 +4694,7 @@
         <v>113</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4702,7 @@
         <v>115</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,7 +4710,7 @@
         <v>10</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,7 +4718,7 @@
         <v>131</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4726,7 @@
         <v>134</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,7 +4734,7 @@
         <v>142</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,7 +4742,7 @@
         <v>167</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,7 +4750,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,7 +4758,7 @@
         <v>175</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,7 +4766,7 @@
         <v>176</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4774,7 @@
         <v>202</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,7 +4782,7 @@
         <v>203</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,7 +4790,7 @@
         <v>209</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,7 +4798,7 @@
         <v>210</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,7 +4806,7 @@
         <v>213</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4814,7 @@
         <v>220</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,7 +4822,7 @@
         <v>221</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,7 +4830,7 @@
         <v>234</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,7 +4838,7 @@
         <v>239</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,7 +4846,7 @@
         <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4854,7 @@
         <v>248</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,7 +4862,7 @@
         <v>251</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,7 +4870,7 @@
         <v>271</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,7 +4878,7 @@
         <v>276</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,7 +4886,7 @@
         <v>295</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,7 +4894,7 @@
         <v>309</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4902,7 @@
         <v>312</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,7 +4910,7 @@
         <v>320</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4501,7 +4918,7 @@
         <v>330</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4926,7 @@
         <v>334</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,15 +4934,18 @@
         <v>335</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>276</v>
+        <v>339</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,15 +4953,16 @@
         <v>34</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>277</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,7 +4970,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,7 +4978,7 @@
         <v>107</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,7 +4986,7 @@
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4994,7 @@
         <v>145</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,7 +5010,7 @@
         <v>146</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4597,7 +5018,7 @@
         <v>168</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,7 +5026,7 @@
         <v>178</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,7 +5034,7 @@
         <v>179</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +5042,7 @@
         <v>217</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4629,7 +5050,7 @@
         <v>241</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,7 +5058,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,7 +5066,7 @@
         <v>277</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,7 +5074,7 @@
         <v>281</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +5082,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,7 +5090,7 @@
         <v>285</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,7 +5098,7 @@
         <v>293</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,7 +5106,7 @@
         <v>311</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,7 +5114,7 @@
         <v>314</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,7 +5122,7 @@
         <v>315</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,7 +5130,7 @@
         <v>321</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +5138,7 @@
         <v>333</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,7 +5146,7 @@
         <v>37</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,7 +5154,7 @@
         <v>45</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,7 +5162,7 @@
         <v>62</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,7 +5170,7 @@
         <v>69</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +5178,7 @@
         <v>74</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +5186,7 @@
         <v>128</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,7 +5194,7 @@
         <v>93</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,15 +5202,18 @@
         <v>116</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
         <v>159</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>309</v>
+        <v>373</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,7 +5221,7 @@
         <v>174</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +5229,7 @@
         <v>204</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +5237,7 @@
         <v>216</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +5245,7 @@
         <v>219</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,7 +5253,7 @@
         <v>237</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,7 +5261,7 @@
         <v>238</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,7 +5269,7 @@
         <v>244</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +5277,7 @@
         <v>245</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,7 +5285,7 @@
         <v>247</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +5293,7 @@
         <v>270</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,7 +5301,7 @@
         <v>274</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,7 +5309,7 @@
         <v>278</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,7 +5317,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>322</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,7 +5325,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,7 +5333,7 @@
         <v>310</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,7 +5341,7 @@
         <v>323</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +5349,7 @@
         <v>328</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,7 +5357,7 @@
         <v>73</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +5365,7 @@
         <v>75</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,7 +5373,7 @@
         <v>99</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,7 +5381,7 @@
         <v>111</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,7 +5389,7 @@
         <v>114</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4973,7 +5397,7 @@
         <v>173</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,7 +5405,7 @@
         <v>230</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,7 +5413,7 @@
         <v>207</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,7 +5421,7 @@
         <v>240</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,7 +5429,7 @@
         <v>253</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5437,7 @@
         <v>255</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,7 +5445,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5453,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,7 +5461,7 @@
         <v>316</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,7 +5469,7 @@
         <v>318</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5477,7 @@
         <v>331</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,7 +5485,7 @@
         <v>332</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +5501,7 @@
         <v>35</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +5509,7 @@
         <v>94</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,7 +5517,7 @@
         <v>133</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,7 +5525,7 @@
         <v>147</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5533,7 @@
         <v>231</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5541,7 @@
         <v>246</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,7 +5549,7 @@
         <v>250</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,7 +5557,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5565,7 @@
         <v>286</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,7 +5573,7 @@
         <v>68</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5581,7 @@
         <v>97</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5589,7 @@
         <v>109</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,15 +5597,18 @@
         <v>112</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
         <v>160</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>358</v>
+        <v>423</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5616,7 @@
         <v>135</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,7 +5624,7 @@
         <v>141</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5632,7 @@
         <v>252</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5640,7 @@
         <v>307</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +5648,7 @@
         <v>129</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +5656,7 @@
         <v>104</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5664,7 @@
         <v>118</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,7 +5672,7 @@
         <v>182</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +5680,7 @@
         <v>18</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5688,7 @@
         <v>108</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,7 +5696,7 @@
         <v>46</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +5704,7 @@
         <v>66</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5720,7 @@
         <v>317</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5728,7 @@
         <v>88</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +5736,7 @@
         <v>258</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,15 +5744,18 @@
         <v>291</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
         <v>198</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>376</v>
+        <v>442</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +5763,7 @@
         <v>265</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5771,7 @@
         <v>132</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5779,7 @@
         <v>63</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,7 +5787,7 @@
         <v>32</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,15 +5795,18 @@
         <v>327</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>382</v>
+        <v>449</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,7 +5814,7 @@
         <v>304</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5822,7 @@
         <v>266</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5830,7 @@
         <v>215</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,7 +5838,7 @@
         <v>292</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,7 +5846,7 @@
         <v>358</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,16 +5854,16 @@
         <v>360</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,16 +5871,16 @@
         <v>362</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>394</v>
+        <v>56</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5888,7 @@
         <v>364</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,7 +5896,7 @@
         <v>365</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,7 +5904,7 @@
         <v>368</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,7 +5912,7 @@
         <v>371</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,7 +5920,7 @@
         <v>374</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5495,7 +5928,7 @@
         <v>375</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,7 +5936,7 @@
         <v>376</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,7 +5944,7 @@
         <v>355</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,18 +5952,18 @@
         <v>356</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G367" s="2" t="n">
+        <v>472</v>
+      </c>
+      <c r="G367" s="4" t="n">
         <v>40206</v>
       </c>
     </row>
@@ -5539,7 +5972,7 @@
         <v>361</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,7 +5980,7 @@
         <v>366</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,7 +5988,7 @@
         <v>367</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5996,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,7 +6004,7 @@
         <v>373</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,7 +6012,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,13 +6020,13 @@
         <v>363</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,7 +6034,7 @@
         <v>357</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +6042,7 @@
         <v>354</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +6050,7 @@
         <v>370</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,13 +6058,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,7 +6072,7 @@
         <v>359</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,7 +6080,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,7 +6088,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,7 +6096,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,7 +6104,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,16 +6112,16 @@
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +6129,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +6137,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +6145,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,13 +6153,13 @@
         <v>385</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,7 +6167,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +6175,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,7 +6183,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,7 +6191,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,13 +6199,13 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +6213,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,16 +6221,16 @@
         <v>395</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,16 +6238,16 @@
         <v>396</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>445</v>
+        <v>85</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +6255,7 @@
         <v>398</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +6263,7 @@
         <v>404</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +6271,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +6279,7 @@
         <v>410</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,16 +6287,16 @@
         <v>411</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,7 +6304,7 @@
         <v>412</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,7 +6312,7 @@
         <v>413</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,7 +6320,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,7 +6328,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,7 +6336,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,7 +6344,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5919,7 +6352,7 @@
         <v>393</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,7 +6360,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,7 +6368,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,7 +6376,7 @@
         <v>400</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,7 +6384,7 @@
         <v>402</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +6392,7 @@
         <v>397</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +6400,7 @@
         <v>401</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,7 +6408,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,7 +6416,7 @@
         <v>408</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,13 +6424,13 @@
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,7 +6438,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,16 +6446,16 @@
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>475</v>
+        <v>66</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,7 +6463,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6471,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,7 +6479,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,7 +6487,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,7 +6495,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,7 +6503,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6078,7 +6511,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,13 +6519,13 @@
         <v>428</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,7 +6533,7 @@
         <v>432</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,16 +6541,16 @@
         <v>437</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,9 +6558,8 @@
         <v>438</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="C430" s="0"/>
+        <v>554</v>
+      </c>
       <c r="D430" s="0"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,7 +6567,7 @@
         <v>446</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,16 +6575,16 @@
         <v>448</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,7 +6592,7 @@
         <v>449</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,7 +6600,7 @@
         <v>450</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,7 +6608,7 @@
         <v>424</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,7 +6616,7 @@
         <v>429</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,13 +6624,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,13 +6638,13 @@
         <v>439</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,7 +6652,7 @@
         <v>443</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6660,7 @@
         <v>444</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,16 +6668,16 @@
         <v>445</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,7 +6685,7 @@
         <v>447</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,7 +6693,7 @@
         <v>431</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6701,7 @@
         <v>435</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,7 +6709,7 @@
         <v>426</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6717,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6725,7 @@
         <v>434</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,7 +6733,7 @@
         <v>430</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +6741,7 @@
         <v>433</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,16 +6749,16 @@
         <v>441</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,7 +6766,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,7 +6774,7 @@
         <v>440</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,7 +6782,7 @@
         <v>427</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6358,16 +6790,16 @@
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>524</v>
+        <v>48</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>475</v>
+        <v>66</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,22 +6807,22 @@
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,13 +6830,13 @@
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,7 +6844,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,13 +6852,13 @@
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,7 +6866,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,7 +6874,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6450,16 +6882,16 @@
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,7 +6899,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,21 +6907,21 @@
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G463" s="2" t="n">
+        <v>608</v>
+      </c>
+      <c r="G463" s="4" t="n">
         <v>43463</v>
       </c>
     </row>
@@ -6498,7 +6930,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,16 +6938,16 @@
         <v>465</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,16 +6955,16 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6540,16 +6972,16 @@
         <v>463</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,7 +6989,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,7 +6997,7 @@
         <v>474</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,16 +7005,16 @@
         <v>475</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +7022,7 @@
         <v>479</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,16 +7030,16 @@
         <v>468</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,16 +7047,16 @@
         <v>484</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>475</v>
+        <v>66</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +7064,7 @@
         <v>491</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +7072,7 @@
         <v>494</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,7 +7080,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +7088,7 @@
         <v>469</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,7 +7096,7 @@
         <v>480</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>573</v>
+        <v>634</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,7 +7104,7 @@
         <v>483</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6680,7 +7112,7 @@
         <v>485</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>575</v>
+        <v>636</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,7 +7120,7 @@
         <v>487</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>576</v>
+        <v>637</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,16 +7128,16 @@
         <v>473</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>580</v>
+        <v>51</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,9 +7145,8 @@
         <v>488</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="C483" s="0"/>
+        <v>641</v>
+      </c>
       <c r="D483" s="0"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,16 +7154,16 @@
         <v>467</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>582</v>
+        <v>642</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>583</v>
+        <v>643</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>584</v>
+        <v>644</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>585</v>
+        <v>645</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,16 +7171,16 @@
         <v>478</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>586</v>
+        <v>646</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>587</v>
+        <v>647</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>588</v>
+        <v>97</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,7 +7188,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>589</v>
+        <v>648</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,7 +7196,7 @@
         <v>489</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>590</v>
+        <v>649</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,7 +7204,7 @@
         <v>470</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>591</v>
+        <v>650</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,7 +7212,7 @@
         <v>471</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,13 +7220,13 @@
         <v>481</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,7 +7234,7 @@
         <v>486</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>596</v>
+        <v>655</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,7 +7242,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>597</v>
+        <v>656</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,7 +7250,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,7 +7258,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,7 +7266,7 @@
         <v>477</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>600</v>
+        <v>659</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,7 +7274,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,7 +7282,7 @@
         <v>472</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>602</v>
+        <v>661</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,7 +7290,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,16 +7298,16 @@
         <v>498</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>605</v>
+        <v>113</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,16 +7315,16 @@
         <v>496</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>610</v>
+        <v>668</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,7 +7332,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6909,13 +7340,13 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,16 +7354,16 @@
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,13 +7371,13 @@
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>617</v>
+        <v>675</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>618</v>
+        <v>676</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>619</v>
+        <v>677</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,16 +7385,16 @@
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>588</v>
+        <v>97</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,7 +7402,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,7 +7410,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,7 +7418,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,7 +7426,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,7 +7434,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,7 +7442,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,7 +7450,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,13 +7458,13 @@
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,7 +7472,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>633</v>
+        <v>691</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,7 +7480,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,7 +7488,7 @@
         <v>522</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,7 +7496,7 @@
         <v>523</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>636</v>
+        <v>694</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,7 +7504,7 @@
         <v>525</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,7 +7512,7 @@
         <v>526</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,7 +7520,7 @@
         <v>533</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,7 +7528,7 @@
         <v>534</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>640</v>
+        <v>698</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,16 +7536,16 @@
         <v>538</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>643</v>
+        <v>701</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,16 +7553,16 @@
         <v>541</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>645</v>
+        <v>703</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>445</v>
+        <v>85</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,7 +7570,7 @@
         <v>543</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>646</v>
+        <v>704</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,7 +7578,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>647</v>
+        <v>705</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,16 +7586,16 @@
         <v>528</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>445</v>
+        <v>85</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,7 +7603,7 @@
         <v>532</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,16 +7611,16 @@
         <v>514</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,7 +7628,7 @@
         <v>516</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,7 +7636,7 @@
         <v>531</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>657</v>
+        <v>715</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7213,7 +7644,7 @@
         <v>537</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>658</v>
+        <v>716</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,7 +7652,7 @@
         <v>539</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,16 +7660,16 @@
         <v>519</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>660</v>
+        <v>718</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,16 +7677,16 @@
         <v>527</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>662</v>
+        <v>720</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,16 +7694,16 @@
         <v>530</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>664</v>
+        <v>722</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>445</v>
+        <v>85</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,16 +7711,16 @@
         <v>535</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,16 +7728,16 @@
         <v>518</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>669</v>
+        <v>727</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>670</v>
+        <v>728</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>671</v>
+        <v>729</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,16 +7745,16 @@
         <v>520</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>672</v>
+        <v>730</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>673</v>
+        <v>731</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,16 +7762,16 @@
         <v>521</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>676</v>
+        <v>734</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>678</v>
+        <v>736</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,7 +7779,7 @@
         <v>536</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,16 +7787,16 @@
         <v>540</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>681</v>
+        <v>739</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>584</v>
+        <v>644</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,16 +7804,16 @@
         <v>542</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>682</v>
+        <v>740</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>684</v>
+        <v>742</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,7 +7821,7 @@
         <v>517</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>685</v>
+        <v>743</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7398,7 +7829,7 @@
         <v>529</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>686</v>
+        <v>744</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,7 +7837,7 @@
         <v>515</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7414,7 +7845,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,7 +7853,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>689</v>
+        <v>747</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,16 +7861,16 @@
         <v>548</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>690</v>
+        <v>748</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>692</v>
+        <v>750</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,7 +7878,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>693</v>
+        <v>751</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,7 +7886,7 @@
         <v>547</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>694</v>
+        <v>752</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,16 +7894,16 @@
         <v>546</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>696</v>
+        <v>754</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>697</v>
+        <v>755</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,7 +7911,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>698</v>
+        <v>756</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,19 +7919,19 @@
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>699</v>
+        <v>757</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>700</v>
+        <v>758</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>701</v>
+        <v>759</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,16 +7939,16 @@
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>703</v>
+        <v>761</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>704</v>
+        <v>762</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>705</v>
+        <v>763</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>445</v>
+        <v>85</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7525,7 +7956,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>706</v>
+        <v>764</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,7 +7964,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>707</v>
+        <v>765</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,7 +7972,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>708</v>
+        <v>766</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,7 +7980,7 @@
         <v>560</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,7 +7988,7 @@
         <v>561</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>710</v>
+        <v>768</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +7996,7 @@
         <v>569</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>711</v>
+        <v>769</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,16 +8004,16 @@
         <v>574</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>712</v>
+        <v>770</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>714</v>
+        <v>772</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>394</v>
+        <v>56</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,16 +8021,16 @@
         <v>557</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>715</v>
+        <v>773</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>716</v>
+        <v>774</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7607,7 +8038,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>718</v>
+        <v>776</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,16 +8046,16 @@
         <v>564</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>719</v>
+        <v>777</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>720</v>
+        <v>778</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,16 +8063,16 @@
         <v>566</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>721</v>
+        <v>779</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>722</v>
+        <v>780</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>723</v>
+        <v>781</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7649,7 +8080,7 @@
         <v>568</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>724</v>
+        <v>782</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,7 +8088,7 @@
         <v>571</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>725</v>
+        <v>783</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,7 +8096,7 @@
         <v>556</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>726</v>
+        <v>784</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,7 +8104,7 @@
         <v>565</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,7 +8112,7 @@
         <v>572</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>728</v>
+        <v>786</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,16 +8120,16 @@
         <v>573</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>729</v>
+        <v>787</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>730</v>
+        <v>788</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>732</v>
+        <v>790</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,7 +8137,7 @@
         <v>558</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>733</v>
+        <v>791</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,7 +8145,7 @@
         <v>559</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>734</v>
+        <v>792</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7722,16 +8153,16 @@
         <v>570</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>735</v>
+        <v>793</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>588</v>
+        <v>97</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,16 +8170,16 @@
         <v>562</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>736</v>
+        <v>794</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>737</v>
+        <v>795</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>684</v>
+        <v>742</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>738</v>
+        <v>796</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7756,7 +8187,7 @@
         <v>567</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>739</v>
+        <v>797</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,7 +8195,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>740</v>
+        <v>798</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,7 +8203,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>741</v>
+        <v>799</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7780,7 +8211,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>742</v>
+        <v>800</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7788,7 +8219,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>743</v>
+        <v>801</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,7 +8227,7 @@
         <v>577</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>744</v>
+        <v>802</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,16 +8235,16 @@
         <v>578</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>745</v>
+        <v>803</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>746</v>
+        <v>804</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>747</v>
+        <v>805</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,7 +8252,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,19 +8260,19 @@
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>750</v>
+        <v>808</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>751</v>
+        <v>164</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,7 +8280,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>753</v>
+        <v>810</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,16 +8288,16 @@
         <v>585</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,7 +8305,7 @@
         <v>583</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,7 +8313,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,7 +8321,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7898,7 +8329,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,7 +8337,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>761</v>
+        <v>818</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,7 +8345,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7922,7 +8353,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,7 +8361,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,7 +8369,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>765</v>
+        <v>822</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,11 +8377,155 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>766</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C586"/>
+  <autoFilter ref="C1:C586">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="-18-07-2019"/>
+        <filter val="01/12/19"/>
+        <filter val="02-Mar 2019"/>
+        <filter val="02/07/2019"/>
+        <filter val="02/22/19"/>
+        <filter val="03/03/2015"/>
+        <filter val="03/07/2019"/>
+        <filter val="03/12/19"/>
+        <filter val="03/25/19"/>
+        <filter val="03/Jun/2019"/>
+        <filter val="04/13/2019"/>
+        <filter val="04/Jul/2019"/>
+        <filter val="05-11-2018"/>
+        <filter val="05/04/19"/>
+        <filter val="05/07/2019"/>
+        <filter val="05/11/18"/>
+        <filter val="05/16/19"/>
+        <filter val="06/01/19"/>
+        <filter val="06/02/15"/>
+        <filter val="06/02/2019"/>
+        <filter val="06/03/19"/>
+        <filter val="06/03/2019"/>
+        <filter val="06/04/19"/>
+        <filter val="06/05/2019"/>
+        <filter val="06/06/19"/>
+        <filter val="06/07/2019"/>
+        <filter val="06/11/19"/>
+        <filter val="06/16/2019"/>
+        <filter val="06/17/2019"/>
+        <filter val="06/20/19"/>
+        <filter val="06/26/2019"/>
+        <filter val="06/29/19"/>
+        <filter val="06/29/2019"/>
+        <filter val="07-06-19"/>
+        <filter val="07-Jun-2019"/>
+        <filter val="07/01/19"/>
+        <filter val="07/06/19"/>
+        <filter val="07/08/19"/>
+        <filter val="07/09/19"/>
+        <filter val="07/10/2019"/>
+        <filter val="07/15/2016"/>
+        <filter val="07/16/19"/>
+        <filter val="07/22/2018"/>
+        <filter val="07/28/18"/>
+        <filter val="08/05/2019"/>
+        <filter val="08/07/19"/>
+        <filter val="09-Jul-19"/>
+        <filter val="09/25/18"/>
+        <filter val="1/06/19"/>
+        <filter val="10-07-2019"/>
+        <filter val="10-20-2018"/>
+        <filter val="10/05/19"/>
+        <filter val="10/25/2017"/>
+        <filter val="10/6/19"/>
+        <filter val="11-07-19"/>
+        <filter val="11/06/19"/>
+        <filter val="12/07/2019"/>
+        <filter val="12/28/2017"/>
+        <filter val="12/29/2017"/>
+        <filter val="12/Jul/2019"/>
+        <filter val="12MAR’19"/>
+        <filter val="13-06-2019"/>
+        <filter val="13-07-19"/>
+        <filter val="13-4-19"/>
+        <filter val="14-5-201"/>
+        <filter val="14/06/2019"/>
+        <filter val="15/06/2019"/>
+        <filter val="16/07/2019"/>
+        <filter val="17-Feb-2018"/>
+        <filter val="17/05/2019"/>
+        <filter val="17/07/2019"/>
+        <filter val="18/06/2019"/>
+        <filter val="18/07/2019"/>
+        <filter val="19/07/19"/>
+        <filter val="19/6/2019"/>
+        <filter val="2013-08-10"/>
+        <filter val="2019-06-28"/>
+        <filter val="2019-11-06"/>
+        <filter val="21/06/2019"/>
+        <filter val="21/5"/>
+        <filter val="22-06-2019"/>
+        <filter val="22.05.2019"/>
+        <filter val="22/05/19"/>
+        <filter val="22/05/2019"/>
+        <filter val="22/5/19"/>
+        <filter val="22/Jul/2019"/>
+        <filter val="23-07-19"/>
+        <filter val="23/05/2019"/>
+        <filter val="23/06/2019"/>
+        <filter val="24-07-19"/>
+        <filter val="24/06/19"/>
+        <filter val="24May’19"/>
+        <filter val="25-07-19"/>
+        <filter val="25-07-2019"/>
+        <filter val="25-Jul-2019"/>
+        <filter val="25/7/19"/>
+        <filter val="25AUG’17"/>
+        <filter val="26/04/19"/>
+        <filter val="27-Jun-19"/>
+        <filter val="27/5/19"/>
+        <filter val="28 Jun 2019"/>
+        <filter val="28-05-19"/>
+        <filter val="28-Jun-2019"/>
+        <filter val="28/06/2019"/>
+        <filter val="29-07-2019"/>
+        <filter val="29-6-2019"/>
+        <filter val="29-MAY-2019"/>
+        <filter val="29/05/2019"/>
+        <filter val="30.04.2019"/>
+        <filter val="31/05/19"/>
+        <filter val="31/05/2019"/>
+        <filter val="31/5/19"/>
+        <filter val="5/15/2019"/>
+        <filter val="5/26/2016"/>
+        <filter val="5/29/2019"/>
+        <filter val="5/4/2017"/>
+        <filter val="6/05/19"/>
+        <filter val="6/1/19"/>
+        <filter val="6/15/2019"/>
+        <filter val="6/24/2018"/>
+        <filter val="6/27/2019"/>
+        <filter val="6/28/2019"/>
+        <filter val="6/3/2019"/>
+        <filter val="6/5/17"/>
+        <filter val="7/2/2019"/>
+        <filter val="Apr07’16"/>
+        <filter val="Aug 18, 2018"/>
+        <filter val="Aug23’19"/>
+        <filter val="December 29, 2018"/>
+        <filter val="Jan 28, 2018"/>
+        <filter val="Jul 1, 2019"/>
+        <filter val="Jun 1, 2019"/>
+        <filter val="June 16, 2019"/>
+        <filter val="Mar18’18"/>
+        <filter val="NaN"/>
+        <filter val="Oct06’16"/>
+        <filter val="Sep 29, 2018"/>
+        <filter val="Sep07’18"/>
+        <filter val="ov-15-06-N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/meta data.xlsx
+++ b/meta data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="825">
   <si>
     <t xml:space="preserve">Expected Output</t>
   </si>
@@ -235,106 +235,109 @@
     <t xml:space="preserve">2bdd2396.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c942f50.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/29/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjusted Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c500858.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d27a624.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02d54805.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/29/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2de48561.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2edff68d.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/15/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ef79975.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f36db66.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02f4068e.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/Jul/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-07-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fdd6a08.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/04/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bce4b60.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/27/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bf18630.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 16, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bfa05ad.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/25/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3c73f675.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/05/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2c942f50.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/29/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjusted Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2c500858.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/26/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2d27a624.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/06/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02d54805.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/29/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2de48561.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/05/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2edff68d.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/15/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ef79975.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f36db66.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02f4068e.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/Jul/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-07-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2fdd6a08.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/04/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bce4b60.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/27/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bf18630.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 16, 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bfa05ad.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/25/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3c73f675.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/05/2019</t>
   </si>
   <si>
     <t xml:space="preserve">3cdec471.jpeg</t>
@@ -2619,7 +2622,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31:C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2654,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>20</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>21</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>22</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>24</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>23</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>25</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>26</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>27</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>28</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>29</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>30</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>49</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>50</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>51</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>52</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>53</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>54</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>57</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>59</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>61</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>58</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>3</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>78</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>80</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>81</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>79</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>82</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>85</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>84</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>86</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>4</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>87</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>89</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>90</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>5</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>92</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>119</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>120</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>121</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>122</v>
       </c>
@@ -3186,151 +3189,151 @@
         <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>123</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>124</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>125</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>130</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>43775</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>148</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>149</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>150</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>153</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>151</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>152</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>156</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>9</v>
@@ -3341,306 +3344,306 @@
         <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>157</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>158</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>161</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>163</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>164</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>165</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>166</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>183</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>184</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>185</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>186</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>187</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>188</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>189</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>191</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>190</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>192</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>193</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>195</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>194</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>196</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>197</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>43</v>
@@ -3651,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,7 +3662,7 @@
         <v>199</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,7 +3670,7 @@
         <v>200</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,7 +3678,7 @@
         <v>201</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,7 +3686,7 @@
         <v>223</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,7 +3694,7 @@
         <v>222</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,7 +3702,7 @@
         <v>224</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3710,7 @@
         <v>225</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3718,7 @@
         <v>226</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,7 +3726,7 @@
         <v>227</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,7 +3742,7 @@
         <v>229</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,7 +3750,7 @@
         <v>232</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,7 +3758,7 @@
         <v>233</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +3766,7 @@
         <v>259</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,7 +3774,7 @@
         <v>260</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,7 +3782,7 @@
         <v>261</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,7 +3790,7 @@
         <v>262</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +3798,7 @@
         <v>263</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,7 +3806,7 @@
         <v>264</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,7 +3814,7 @@
         <v>267</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,7 +3822,7 @@
         <v>268</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,7 +3830,7 @@
         <v>269</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,7 +3838,7 @@
         <v>298</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,7 +3846,7 @@
         <v>299</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3854,7 @@
         <v>300</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,7 +3862,7 @@
         <v>301</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,7 +3870,7 @@
         <v>302</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,7 +3878,7 @@
         <v>303</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +3886,7 @@
         <v>308</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,7 +3894,7 @@
         <v>336</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,7 +3902,7 @@
         <v>337</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +3910,7 @@
         <v>338</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,7 +3918,7 @@
         <v>339</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,7 +3926,7 @@
         <v>340</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +3934,7 @@
         <v>341</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,7 +3942,7 @@
         <v>342</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,7 +3950,7 @@
         <v>343</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +3958,7 @@
         <v>346</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,7 +3966,7 @@
         <v>344</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +3974,7 @@
         <v>345</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,7 +3982,7 @@
         <v>347</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,7 +3990,7 @@
         <v>348</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +3998,7 @@
         <v>351</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,7 +4006,7 @@
         <v>349</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,7 +4014,7 @@
         <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,7 +4022,7 @@
         <v>352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,7 +4030,7 @@
         <v>353</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,7 +4038,7 @@
         <v>33</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,7 +4046,7 @@
         <v>38</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,7 +4054,7 @@
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,7 +4062,7 @@
         <v>43</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4070,7 @@
         <v>44</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,7 +4078,7 @@
         <v>48</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,7 +4086,7 @@
         <v>64</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4094,7 @@
         <v>71</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +4102,7 @@
         <v>72</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,7 +4110,7 @@
         <v>76</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,7 +4118,7 @@
         <v>77</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4134,7 @@
         <v>101</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,7 +4142,7 @@
         <v>102</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +4150,7 @@
         <v>105</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,7 +4158,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,7 +4166,7 @@
         <v>117</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,7 +4174,7 @@
         <v>136</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,7 +4182,7 @@
         <v>137</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4190,7 @@
         <v>139</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,7 +4198,7 @@
         <v>138</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,7 +4206,7 @@
         <v>140</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,7 +4214,7 @@
         <v>143</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,7 +4230,7 @@
         <v>170</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,7 +4238,7 @@
         <v>171</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4246,7 @@
         <v>172</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,7 +4254,7 @@
         <v>177</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,7 +4262,7 @@
         <v>181</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,7 +4270,7 @@
         <v>180</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,7 +4278,7 @@
         <v>205</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,7 +4286,7 @@
         <v>206</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,7 +4294,7 @@
         <v>208</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4302,7 @@
         <v>211</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,7 +4310,7 @@
         <v>212</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,7 +4318,7 @@
         <v>214</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,7 +4326,7 @@
         <v>218</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4334,7 @@
         <v>16</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +4342,7 @@
         <v>235</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,7 +4350,7 @@
         <v>236</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,7 +4358,7 @@
         <v>242</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,7 +4366,7 @@
         <v>243</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,7 +4374,7 @@
         <v>249</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4382,7 @@
         <v>254</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,7 +4390,7 @@
         <v>257</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,7 +4398,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,7 +4406,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,7 +4414,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4422,7 @@
         <v>279</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,7 +4430,7 @@
         <v>280</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,7 +4438,7 @@
         <v>282</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,7 +4446,7 @@
         <v>287</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,7 +4454,7 @@
         <v>288</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,7 +4462,7 @@
         <v>290</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,7 +4470,7 @@
         <v>296</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,7 +4478,7 @@
         <v>297</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,7 +4486,7 @@
         <v>313</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,7 +4494,7 @@
         <v>319</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,7 +4502,7 @@
         <v>322</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4510,7 @@
         <v>324</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,7 +4518,7 @@
         <v>325</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,7 +4526,7 @@
         <v>326</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4534,7 @@
         <v>329</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,7 +4542,7 @@
         <v>31</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,7 +4558,7 @@
         <v>40</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4566,7 @@
         <v>41</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,7 +4582,7 @@
         <v>42</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,7 +4590,7 @@
         <v>47</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4598,7 @@
         <v>65</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,18 +4606,18 @@
         <v>67</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>126</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4625,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4633,7 @@
         <v>95</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4641,7 @@
         <v>96</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4649,7 @@
         <v>98</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4657,7 @@
         <v>103</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4665,7 @@
         <v>106</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +4673,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,7 +4681,7 @@
         <v>8</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,7 +4689,7 @@
         <v>110</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4697,7 @@
         <v>113</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4705,7 @@
         <v>115</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,7 +4721,7 @@
         <v>131</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4745,7 @@
         <v>167</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,7 +4753,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,7 +4761,7 @@
         <v>175</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4769,7 @@
         <v>176</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,7 +4777,7 @@
         <v>202</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,7 +4785,7 @@
         <v>203</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,7 +4793,7 @@
         <v>209</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4801,7 @@
         <v>210</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,7 +4809,7 @@
         <v>213</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,7 +4817,7 @@
         <v>220</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4825,7 @@
         <v>221</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,7 +4833,7 @@
         <v>234</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,7 +4841,7 @@
         <v>239</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,7 +4849,7 @@
         <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +4857,7 @@
         <v>248</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,7 +4865,7 @@
         <v>251</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +4873,7 @@
         <v>271</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +4881,7 @@
         <v>276</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,7 +4889,7 @@
         <v>295</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,7 +4897,7 @@
         <v>309</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,7 +4905,7 @@
         <v>312</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4913,7 @@
         <v>320</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4918,7 +4921,7 @@
         <v>330</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,7 +4929,7 @@
         <v>334</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,18 +4937,18 @@
         <v>335</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,7 +4956,7 @@
         <v>34</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C246" s="2"/>
     </row>
@@ -4962,7 +4965,7 @@
         <v>70</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,7 +4973,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,7 +4981,7 @@
         <v>107</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,7 +4989,7 @@
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,7 +4997,7 @@
         <v>145</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,7 +5013,7 @@
         <v>146</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +5021,7 @@
         <v>168</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,7 +5029,7 @@
         <v>178</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,7 +5037,7 @@
         <v>179</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,7 +5045,7 @@
         <v>217</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5053,7 @@
         <v>241</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,7 +5061,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,7 +5069,7 @@
         <v>277</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,7 +5077,7 @@
         <v>281</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,7 +5085,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,7 +5093,7 @@
         <v>285</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,7 +5101,7 @@
         <v>293</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5109,7 @@
         <v>311</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,7 +5117,7 @@
         <v>314</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,7 +5125,7 @@
         <v>315</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,7 +5133,7 @@
         <v>321</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,7 +5141,7 @@
         <v>333</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +5149,7 @@
         <v>37</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,7 +5157,7 @@
         <v>45</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5165,7 @@
         <v>62</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,7 +5173,7 @@
         <v>69</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5186,7 +5189,7 @@
         <v>128</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,7 +5197,7 @@
         <v>93</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,18 +5205,18 @@
         <v>116</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
         <v>159</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +5224,7 @@
         <v>174</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +5232,7 @@
         <v>204</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5240,7 @@
         <v>216</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,7 +5248,7 @@
         <v>219</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +5256,7 @@
         <v>237</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5264,7 @@
         <v>238</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,7 +5272,7 @@
         <v>244</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +5280,7 @@
         <v>245</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,7 +5288,7 @@
         <v>247</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5296,7 @@
         <v>270</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5304,7 @@
         <v>274</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +5312,7 @@
         <v>278</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,7 +5320,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5328,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +5336,7 @@
         <v>310</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5344,7 @@
         <v>323</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5352,7 @@
         <v>328</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,7 +5360,7 @@
         <v>73</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,7 +5368,7 @@
         <v>75</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5373,7 +5376,7 @@
         <v>99</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,7 +5384,7 @@
         <v>111</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5392,7 @@
         <v>114</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5400,7 @@
         <v>173</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,7 +5408,7 @@
         <v>230</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,7 +5416,7 @@
         <v>207</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +5424,7 @@
         <v>240</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,7 +5432,7 @@
         <v>253</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,7 +5440,7 @@
         <v>255</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,7 +5448,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,7 +5456,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,7 +5464,7 @@
         <v>316</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,7 +5472,7 @@
         <v>318</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,7 +5480,7 @@
         <v>331</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +5488,7 @@
         <v>332</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,7 +5504,7 @@
         <v>35</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,7 +5512,7 @@
         <v>94</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,7 +5520,7 @@
         <v>133</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,7 +5528,7 @@
         <v>147</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,7 +5536,7 @@
         <v>231</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5544,7 @@
         <v>246</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,7 +5552,7 @@
         <v>250</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5560,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,7 +5568,7 @@
         <v>286</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5576,7 @@
         <v>68</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,7 +5584,7 @@
         <v>97</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,7 +5592,7 @@
         <v>109</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,18 +5600,18 @@
         <v>112</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
         <v>160</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,7 +5619,7 @@
         <v>135</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,7 +5627,7 @@
         <v>141</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +5635,7 @@
         <v>252</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +5643,7 @@
         <v>307</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +5651,7 @@
         <v>129</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5659,7 @@
         <v>104</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5667,7 @@
         <v>118</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5675,7 @@
         <v>182</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +5683,7 @@
         <v>18</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5691,7 @@
         <v>108</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5699,7 @@
         <v>46</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5707,7 @@
         <v>66</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5715,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5723,7 @@
         <v>317</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5731,7 @@
         <v>88</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +5739,7 @@
         <v>258</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,18 +5747,18 @@
         <v>291</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
         <v>198</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,7 +5766,7 @@
         <v>265</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +5774,7 @@
         <v>132</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,7 +5782,7 @@
         <v>63</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,7 +5790,7 @@
         <v>32</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,18 +5798,18 @@
         <v>327</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5817,7 @@
         <v>304</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5825,7 @@
         <v>266</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +5833,7 @@
         <v>215</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5841,7 @@
         <v>292</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,38 +5849,38 @@
         <v>358</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
         <v>360</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E357" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
         <v>362</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E358" s="0" t="s">
         <v>56</v>
@@ -5888,7 +5891,7 @@
         <v>364</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5899,7 @@
         <v>365</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5907,7 @@
         <v>368</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,7 +5915,7 @@
         <v>371</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +5923,7 @@
         <v>374</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,7 +5931,7 @@
         <v>375</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5939,7 @@
         <v>376</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,24 +5947,24 @@
         <v>355</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
         <v>356</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G367" s="4" t="n">
         <v>40206</v>
@@ -5972,7 +5975,7 @@
         <v>361</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,7 +5983,7 @@
         <v>366</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,7 +5991,7 @@
         <v>367</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,7 +5999,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,7 +6007,7 @@
         <v>373</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,21 +6015,21 @@
         <v>372</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
         <v>363</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,7 +6037,7 @@
         <v>357</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,7 +6045,7 @@
         <v>354</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6050,21 +6053,21 @@
         <v>370</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
         <v>377</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6075,7 @@
         <v>359</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +6083,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,7 +6091,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,7 +6099,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,21 +6107,21 @@
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E384" s="0" t="s">
         <v>88</v>
@@ -6129,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,7 +6148,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,13 +6156,13 @@
         <v>385</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,7 +6170,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,7 +6178,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,7 +6186,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,7 +6194,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6199,13 +6202,13 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,38 +6216,38 @@
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
         <v>395</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
         <v>396</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E396" s="0" t="s">
         <v>85</v>
@@ -6255,7 +6258,7 @@
         <v>398</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,7 +6266,7 @@
         <v>404</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6274,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,24 +6282,24 @@
         <v>410</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
         <v>411</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6307,7 @@
         <v>412</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,7 +6315,7 @@
         <v>413</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,7 +6323,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6331,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,7 +6339,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,7 +6347,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,7 +6355,7 @@
         <v>393</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6360,7 +6363,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,7 +6371,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,7 +6379,7 @@
         <v>400</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,7 +6387,7 @@
         <v>402</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,7 +6395,7 @@
         <v>397</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,7 +6403,7 @@
         <v>401</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,7 +6411,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,21 +6419,21 @@
         <v>408</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,21 +6441,21 @@
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E419" s="0" t="s">
         <v>66</v>
@@ -6463,7 +6466,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,7 +6474,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,7 +6482,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6487,7 +6490,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,7 +6498,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,7 +6506,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,21 +6514,21 @@
         <v>425</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
         <v>428</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,21 +6536,21 @@
         <v>432</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="n">
         <v>437</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E429" s="0" t="s">
         <v>88</v>
@@ -6558,7 +6561,7 @@
         <v>438</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D430" s="0"/>
     </row>
@@ -6567,21 +6570,21 @@
         <v>446</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
         <v>448</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E432" s="0" t="s">
         <v>88</v>
@@ -6592,7 +6595,7 @@
         <v>449</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,7 +6603,7 @@
         <v>450</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,7 +6611,7 @@
         <v>424</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,35 +6619,35 @@
         <v>429</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
         <v>436</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
         <v>439</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6652,7 +6655,7 @@
         <v>443</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,24 +6663,24 @@
         <v>444</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
         <v>445</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,7 +6688,7 @@
         <v>447</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,7 +6696,7 @@
         <v>431</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +6704,7 @@
         <v>435</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +6712,7 @@
         <v>426</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,7 +6720,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6728,7 @@
         <v>434</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6736,7 @@
         <v>430</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,21 +6744,21 @@
         <v>433</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="n">
         <v>441</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E450" s="0" t="s">
         <v>43</v>
@@ -6766,7 +6769,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,7 +6777,7 @@
         <v>440</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,61 +6785,61 @@
         <v>427</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="n">
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E454" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="n">
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E455" s="0" t="s">
         <v>88</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="n">
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,21 +6847,21 @@
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="n">
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6866,7 +6869,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,21 +6877,21 @@
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="n">
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E461" s="0" t="s">
         <v>43</v>
@@ -6899,27 +6902,27 @@
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="n">
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G463" s="4" t="n">
         <v>43463</v>
@@ -6930,21 +6933,21 @@
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="n">
         <v>465</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E465" s="0" t="s">
         <v>78</v>
@@ -6955,33 +6958,33 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E466" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="n">
         <v>463</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6989,7 +6992,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6997,21 +7000,21 @@
         <v>474</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="n">
         <v>475</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E470" s="0" t="s">
         <v>88</v>
@@ -7022,38 +7025,38 @@
         <v>479</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="n">
         <v>468</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="n">
         <v>484</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E473" s="0" t="s">
         <v>66</v>
@@ -7064,7 +7067,7 @@
         <v>491</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,7 +7075,7 @@
         <v>494</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,7 +7083,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,7 +7091,7 @@
         <v>469</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,7 +7099,7 @@
         <v>480</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7107,7 @@
         <v>483</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,7 +7115,7 @@
         <v>485</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,21 +7123,21 @@
         <v>487</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="n">
         <v>473</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E482" s="0" t="s">
         <v>51</v>
@@ -7145,39 +7148,39 @@
         <v>488</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D483" s="0"/>
     </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="n">
         <v>467</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="n">
         <v>478</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E485" s="0" t="s">
         <v>97</v>
@@ -7188,7 +7191,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7196,7 +7199,7 @@
         <v>489</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,7 +7207,7 @@
         <v>470</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,21 +7215,21 @@
         <v>471</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="n">
         <v>481</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7234,7 +7237,7 @@
         <v>486</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,7 +7245,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7250,7 +7253,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7261,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,7 +7269,7 @@
         <v>477</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,7 +7277,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,7 +7285,7 @@
         <v>472</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,41 +7293,41 @@
         <v>497</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="n">
         <v>498</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="n">
         <v>496</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7332,7 +7335,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7340,58 +7343,58 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="n">
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="n">
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="n">
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E505" s="0" t="s">
         <v>97</v>
@@ -7402,7 +7405,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,7 +7413,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7418,7 +7421,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7426,7 +7429,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,7 +7437,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,7 +7445,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,21 +7453,21 @@
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="n">
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,7 +7475,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,7 +7483,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,7 +7491,7 @@
         <v>522</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,7 +7499,7 @@
         <v>523</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,7 +7507,7 @@
         <v>525</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7512,7 +7515,7 @@
         <v>526</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7520,7 +7523,7 @@
         <v>533</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7528,38 +7531,38 @@
         <v>534</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="n">
         <v>538</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E522" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="n">
         <v>541</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E523" s="0" t="s">
         <v>85</v>
@@ -7570,7 +7573,7 @@
         <v>543</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,21 +7581,21 @@
         <v>524</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="n">
         <v>528</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E526" s="0" t="s">
         <v>85</v>
@@ -7603,24 +7606,24 @@
         <v>532</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="n">
         <v>514</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7628,7 +7631,7 @@
         <v>516</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,7 +7639,7 @@
         <v>531</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,7 +7647,7 @@
         <v>537</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,126 +7655,126 @@
         <v>539</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="n">
         <v>519</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E533" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="n">
         <v>527</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E534" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="n">
         <v>530</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E535" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="n">
         <v>535</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E536" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="n">
         <v>518</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E537" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="n">
         <v>520</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E538" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="n">
         <v>521</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,38 +7782,38 @@
         <v>536</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="n">
         <v>540</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="n">
         <v>542</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E542" s="0" t="s">
         <v>43</v>
@@ -7821,7 +7824,7 @@
         <v>517</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,7 +7832,7 @@
         <v>529</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,7 +7840,7 @@
         <v>515</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,7 +7848,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,24 +7856,24 @@
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="n">
         <v>548</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,7 +7881,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7886,21 +7889,21 @@
         <v>547</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="n">
         <v>546</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E551" s="0" t="s">
         <v>88</v>
@@ -7911,41 +7914,41 @@
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="n">
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E553" s="0" t="s">
         <v>56</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="n">
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E554" s="0" t="s">
         <v>85</v>
@@ -7956,7 +7959,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,7 +7967,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,7 +7975,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7980,7 +7983,7 @@
         <v>560</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,7 +7991,7 @@
         <v>561</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7996,41 +7999,41 @@
         <v>569</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="n">
         <v>574</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E561" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="n">
         <v>557</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,38 +8041,38 @@
         <v>563</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="n">
         <v>564</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="n">
         <v>566</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E565" s="0" t="s">
         <v>78</v>
@@ -8080,7 +8083,7 @@
         <v>568</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,7 +8091,7 @@
         <v>571</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8096,7 +8099,7 @@
         <v>556</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,7 +8107,7 @@
         <v>565</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,24 +8115,24 @@
         <v>572</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="n">
         <v>573</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8137,7 +8140,7 @@
         <v>558</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8145,41 +8148,41 @@
         <v>559</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="n">
         <v>570</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E574" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="n">
         <v>562</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8187,7 +8190,7 @@
         <v>567</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,7 +8198,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,7 +8206,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,7 +8214,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,7 +8222,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,24 +8230,24 @@
         <v>577</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="n">
         <v>578</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,27 +8255,27 @@
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="n">
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,21 +8283,21 @@
         <v>584</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="n">
         <v>585</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E586" s="0" t="s">
         <v>43</v>
@@ -8305,7 +8308,7 @@
         <v>583</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,7 +8316,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,7 +8324,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,7 +8332,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8337,7 +8340,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,7 +8348,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8353,7 +8356,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,7 +8364,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,7 +8372,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8377,153 +8380,15 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C586">
     <filterColumn colId="0">
-      <filters>
-        <filter val="-18-07-2019"/>
-        <filter val="01/12/19"/>
-        <filter val="02-Mar 2019"/>
-        <filter val="02/07/2019"/>
-        <filter val="02/22/19"/>
-        <filter val="03/03/2015"/>
-        <filter val="03/07/2019"/>
-        <filter val="03/12/19"/>
-        <filter val="03/25/19"/>
-        <filter val="03/Jun/2019"/>
-        <filter val="04/13/2019"/>
-        <filter val="04/Jul/2019"/>
-        <filter val="05-11-2018"/>
-        <filter val="05/04/19"/>
-        <filter val="05/07/2019"/>
-        <filter val="05/11/18"/>
-        <filter val="05/16/19"/>
-        <filter val="06/01/19"/>
-        <filter val="06/02/15"/>
-        <filter val="06/02/2019"/>
-        <filter val="06/03/19"/>
-        <filter val="06/03/2019"/>
-        <filter val="06/04/19"/>
-        <filter val="06/05/2019"/>
-        <filter val="06/06/19"/>
-        <filter val="06/07/2019"/>
-        <filter val="06/11/19"/>
-        <filter val="06/16/2019"/>
-        <filter val="06/17/2019"/>
-        <filter val="06/20/19"/>
-        <filter val="06/26/2019"/>
-        <filter val="06/29/19"/>
-        <filter val="06/29/2019"/>
-        <filter val="07-06-19"/>
-        <filter val="07-Jun-2019"/>
-        <filter val="07/01/19"/>
-        <filter val="07/06/19"/>
-        <filter val="07/08/19"/>
-        <filter val="07/09/19"/>
-        <filter val="07/10/2019"/>
-        <filter val="07/15/2016"/>
-        <filter val="07/16/19"/>
-        <filter val="07/22/2018"/>
-        <filter val="07/28/18"/>
-        <filter val="08/05/2019"/>
-        <filter val="08/07/19"/>
-        <filter val="09-Jul-19"/>
-        <filter val="09/25/18"/>
-        <filter val="1/06/19"/>
-        <filter val="10-07-2019"/>
-        <filter val="10-20-2018"/>
-        <filter val="10/05/19"/>
-        <filter val="10/25/2017"/>
-        <filter val="10/6/19"/>
-        <filter val="11-07-19"/>
-        <filter val="11/06/19"/>
-        <filter val="12/07/2019"/>
-        <filter val="12/28/2017"/>
-        <filter val="12/29/2017"/>
-        <filter val="12/Jul/2019"/>
-        <filter val="12MAR’19"/>
-        <filter val="13-06-2019"/>
-        <filter val="13-07-19"/>
-        <filter val="13-4-19"/>
-        <filter val="14-5-201"/>
-        <filter val="14/06/2019"/>
-        <filter val="15/06/2019"/>
-        <filter val="16/07/2019"/>
-        <filter val="17-Feb-2018"/>
-        <filter val="17/05/2019"/>
-        <filter val="17/07/2019"/>
-        <filter val="18/06/2019"/>
-        <filter val="18/07/2019"/>
-        <filter val="19/07/19"/>
-        <filter val="19/6/2019"/>
-        <filter val="2013-08-10"/>
-        <filter val="2019-06-28"/>
-        <filter val="2019-11-06"/>
-        <filter val="21/06/2019"/>
-        <filter val="21/5"/>
-        <filter val="22-06-2019"/>
-        <filter val="22.05.2019"/>
-        <filter val="22/05/19"/>
-        <filter val="22/05/2019"/>
-        <filter val="22/5/19"/>
-        <filter val="22/Jul/2019"/>
-        <filter val="23-07-19"/>
-        <filter val="23/05/2019"/>
-        <filter val="23/06/2019"/>
-        <filter val="24-07-19"/>
-        <filter val="24/06/19"/>
-        <filter val="24May’19"/>
-        <filter val="25-07-19"/>
-        <filter val="25-07-2019"/>
-        <filter val="25-Jul-2019"/>
-        <filter val="25/7/19"/>
-        <filter val="25AUG’17"/>
-        <filter val="26/04/19"/>
-        <filter val="27-Jun-19"/>
-        <filter val="27/5/19"/>
-        <filter val="28 Jun 2019"/>
-        <filter val="28-05-19"/>
-        <filter val="28-Jun-2019"/>
-        <filter val="28/06/2019"/>
-        <filter val="29-07-2019"/>
-        <filter val="29-6-2019"/>
-        <filter val="29-MAY-2019"/>
-        <filter val="29/05/2019"/>
-        <filter val="30.04.2019"/>
-        <filter val="31/05/19"/>
-        <filter val="31/05/2019"/>
-        <filter val="31/5/19"/>
-        <filter val="5/15/2019"/>
-        <filter val="5/26/2016"/>
-        <filter val="5/29/2019"/>
-        <filter val="5/4/2017"/>
-        <filter val="6/05/19"/>
-        <filter val="6/1/19"/>
-        <filter val="6/15/2019"/>
-        <filter val="6/24/2018"/>
-        <filter val="6/27/2019"/>
-        <filter val="6/28/2019"/>
-        <filter val="6/3/2019"/>
-        <filter val="6/5/17"/>
-        <filter val="7/2/2019"/>
-        <filter val="Apr07’16"/>
-        <filter val="Aug 18, 2018"/>
-        <filter val="Aug23’19"/>
-        <filter val="December 29, 2018"/>
-        <filter val="Jan 28, 2018"/>
-        <filter val="Jul 1, 2019"/>
-        <filter val="Jun 1, 2019"/>
-        <filter val="June 16, 2019"/>
-        <filter val="Mar18’18"/>
-        <filter val="NaN"/>
-        <filter val="Oct06’16"/>
-        <filter val="Sep 29, 2018"/>
-        <filter val="Sep07’18"/>
-        <filter val="ov-15-06-N"/>
-      </filters>
+      <customFilters and="true">
+        <customFilter operator="equal" val="NaN"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/meta data.xlsx
+++ b/meta data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="848">
   <si>
     <t xml:space="preserve">Expected Output</t>
   </si>
@@ -568,75 +568,144 @@
     <t xml:space="preserve">5f2e42d9.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">23/07/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5fb7995c.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">24/06/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">5ff14463.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/25/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">6a6e2a14.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">19-Mar-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">6a42604c.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">2016-07-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">6bab0d7d.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/17/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">6bba9c45.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">07/18/219</t>
+  </si>
+  <si>
     <t xml:space="preserve">6c447c78.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/24/2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">6cb2b839.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">9/1/2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">6d53e280.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Jul16’17</t>
+  </si>
+  <si>
     <t xml:space="preserve">6dbdd84b.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-06-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">6eef3a7f.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Sep28’18</t>
+  </si>
+  <si>
     <t xml:space="preserve">6f542182.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">18-07-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">7ab07a7e.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">7b987291.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">9-2-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">7ba45680.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">11/18/17</t>
+  </si>
+  <si>
     <t xml:space="preserve">7c391a3a.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">19-Apr-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">7c9e38ba.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">05/05/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">7d3d33d3.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">02-08-2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">7eb86b39.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">MAR.19’17</t>
+  </si>
+  <si>
     <t xml:space="preserve">7ecbd11f.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">3/17/17</t>
+  </si>
+  <si>
     <t xml:space="preserve">7f892b9b.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">06/14/2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">8a07a435.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">6/19/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">8ae1cfcd.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">26/06/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">8b916b49.jpeg</t>
   </si>
   <si>
@@ -1225,6 +1294,9 @@
     <t xml:space="preserve">6e5b73db.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">09-Jul-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">637456ba.jpeg</t>
   </si>
   <si>
@@ -1363,6 +1435,9 @@
     <t xml:space="preserve">7e60a259.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">29/05/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">40e86c08.jpeg</t>
   </si>
   <si>
@@ -1900,9 +1975,6 @@
     <t xml:space="preserve">d02db5bc.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">06/17/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-06-17</t>
   </si>
   <si>
@@ -2390,9 +2462,6 @@
   </si>
   <si>
     <t xml:space="preserve">f980a8bc.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/05/2019</t>
   </si>
   <si>
     <t xml:space="preserve">2019-05-29</t>
@@ -2614,15 +2683,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G596"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31:C502"/>
+      <selection pane="bottomLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2657,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>20</v>
       </c>
@@ -2668,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>21</v>
       </c>
@@ -2679,7 +2748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>22</v>
       </c>
@@ -2690,7 +2759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>24</v>
       </c>
@@ -2701,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>23</v>
       </c>
@@ -2712,7 +2781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>25</v>
       </c>
@@ -2723,7 +2792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>26</v>
       </c>
@@ -2734,7 +2803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>27</v>
       </c>
@@ -2745,7 +2814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>28</v>
       </c>
@@ -2756,7 +2825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>29</v>
       </c>
@@ -2767,7 +2836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>30</v>
       </c>
@@ -2778,7 +2847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2</v>
       </c>
@@ -2789,7 +2858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>49</v>
       </c>
@@ -2800,7 +2869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>50</v>
       </c>
@@ -2814,7 +2883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>51</v>
       </c>
@@ -2825,7 +2894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>52</v>
       </c>
@@ -2836,7 +2905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>53</v>
       </c>
@@ -2847,7 +2916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>54</v>
       </c>
@@ -2858,7 +2927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>57</v>
       </c>
@@ -2872,7 +2941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>59</v>
       </c>
@@ -2886,7 +2955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>61</v>
       </c>
@@ -2897,7 +2966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
@@ -2911,7 +2980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>58</v>
       </c>
@@ -2922,7 +2991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>3</v>
       </c>
@@ -2936,7 +3005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>78</v>
       </c>
@@ -2947,7 +3016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>80</v>
       </c>
@@ -2958,7 +3027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>81</v>
       </c>
@@ -2972,7 +3041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>79</v>
       </c>
@@ -2986,7 +3055,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>82</v>
       </c>
@@ -3008,7 +3077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>85</v>
       </c>
@@ -3022,7 +3091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>84</v>
       </c>
@@ -3033,7 +3102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>86</v>
       </c>
@@ -3047,7 +3116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>4</v>
       </c>
@@ -3058,7 +3127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>87</v>
       </c>
@@ -3069,7 +3138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>89</v>
       </c>
@@ -3083,7 +3152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>90</v>
       </c>
@@ -3108,7 +3177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>5</v>
       </c>
@@ -3128,7 +3197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>92</v>
       </c>
@@ -3139,7 +3208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>119</v>
       </c>
@@ -3153,7 +3222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>120</v>
       </c>
@@ -3164,7 +3233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>121</v>
       </c>
@@ -3175,7 +3244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>122</v>
       </c>
@@ -3195,7 +3264,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>123</v>
       </c>
@@ -3209,7 +3278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>124</v>
       </c>
@@ -3220,7 +3289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>125</v>
       </c>
@@ -3234,7 +3303,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>130</v>
       </c>
@@ -3245,7 +3314,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>148</v>
       </c>
@@ -3256,7 +3325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>149</v>
       </c>
@@ -3267,7 +3336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>150</v>
       </c>
@@ -3281,7 +3350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>153</v>
       </c>
@@ -3295,7 +3364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>151</v>
       </c>
@@ -3306,7 +3375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>152</v>
       </c>
@@ -3317,7 +3386,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>154</v>
       </c>
@@ -3328,7 +3397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>156</v>
       </c>
@@ -3350,7 +3419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>157</v>
       </c>
@@ -3364,7 +3433,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>158</v>
       </c>
@@ -3375,7 +3444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>161</v>
       </c>
@@ -3386,7 +3455,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>13</v>
       </c>
@@ -3397,7 +3466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>162</v>
       </c>
@@ -3408,7 +3477,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>163</v>
       </c>
@@ -3419,7 +3488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>164</v>
       </c>
@@ -3430,7 +3499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>14</v>
       </c>
@@ -3441,7 +3510,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>165</v>
       </c>
@@ -3452,7 +3521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>166</v>
       </c>
@@ -3463,7 +3532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>183</v>
       </c>
@@ -3474,7 +3543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>184</v>
       </c>
@@ -3488,7 +3557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>185</v>
       </c>
@@ -3499,7 +3568,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>186</v>
       </c>
@@ -3513,7 +3582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>187</v>
       </c>
@@ -3527,7 +3596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>188</v>
       </c>
@@ -3538,7 +3607,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>189</v>
       </c>
@@ -3549,7 +3618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>191</v>
       </c>
@@ -3560,7 +3629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>190</v>
       </c>
@@ -3574,7 +3643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>192</v>
       </c>
@@ -3588,7 +3657,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>193</v>
       </c>
@@ -3599,7 +3668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>195</v>
       </c>
@@ -3610,7 +3679,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>194</v>
       </c>
@@ -3621,7 +3690,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>196</v>
       </c>
@@ -3635,7 +3704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>197</v>
       </c>
@@ -3649,2218 +3718,2299 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>199</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>200</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>201</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>223</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>222</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>224</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>225</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>226</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>227</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>228</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>229</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>232</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>233</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>259</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>260</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>261</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>262</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>263</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>264</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>267</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>268</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>269</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>298</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>299</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>300</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>301</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>302</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>303</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>308</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>336</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>337</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>338</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>339</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>340</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>341</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>342</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>343</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>346</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>344</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>345</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>347</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>348</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>351</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>349</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>353</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>48</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>64</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>71</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>72</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>76</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>77</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>100</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>101</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>102</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>105</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>117</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>136</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>137</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>139</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>138</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>140</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>143</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>170</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>171</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>172</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>177</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>181</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>180</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>205</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>206</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>208</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>211</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>212</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>214</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>218</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>235</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>236</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>242</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>243</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>249</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>254</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>257</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>272</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>273</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>275</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>279</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>280</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>282</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>287</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>288</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>290</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>296</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>297</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>313</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>319</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>322</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>324</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>325</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>326</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>329</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>65</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>67</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>126</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>95</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>96</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>98</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>103</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>106</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <v>110</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>113</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>115</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>131</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
         <v>134</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>142</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>167</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
         <v>169</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>175</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>176</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>202</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>203</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
         <v>209</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
         <v>210</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
         <v>213</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
         <v>220</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
         <v>221</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>234</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>239</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
         <v>248</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
         <v>251</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
         <v>271</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>276</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
         <v>295</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
         <v>309</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
         <v>312</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
         <v>320</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
         <v>330</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
         <v>334</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
         <v>335</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
         <v>127</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
         <v>107</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
         <v>145</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
         <v>146</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
         <v>168</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
         <v>178</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
         <v>179</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
         <v>217</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
         <v>241</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
         <v>256</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
         <v>277</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
         <v>281</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
         <v>283</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
         <v>285</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
         <v>293</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
         <v>311</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
         <v>314</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
         <v>315</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
         <v>321</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
         <v>333</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
         <v>62</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
         <v>69</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
         <v>74</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
         <v>128</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
         <v>93</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
         <v>116</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
         <v>159</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
         <v>174</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
         <v>204</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
         <v>216</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
         <v>219</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
         <v>237</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
         <v>238</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
         <v>244</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
         <v>245</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
         <v>247</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
         <v>270</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
         <v>274</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
         <v>278</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
         <v>294</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
         <v>310</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
         <v>323</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
         <v>328</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
         <v>73</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
         <v>99</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
         <v>111</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
         <v>114</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
         <v>173</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
         <v>230</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
         <v>207</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
         <v>240</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
         <v>253</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
         <v>255</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
         <v>316</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
         <v>318</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
         <v>331</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
         <v>332</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
         <v>94</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
         <v>133</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
         <v>147</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
         <v>231</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
         <v>246</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
         <v>250</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
         <v>284</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
         <v>286</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
         <v>68</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
         <v>109</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
         <v>112</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
         <v>160</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
         <v>135</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
         <v>141</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
         <v>252</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
         <v>307</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
         <v>129</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
         <v>104</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
         <v>118</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
         <v>182</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
         <v>108</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
         <v>66</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
         <v>317</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
         <v>88</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
         <v>258</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
         <v>291</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
         <v>198</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
         <v>265</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>469</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
         <v>132</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
         <v>327</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
         <v>304</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
         <v>266</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
         <v>215</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
         <v>292</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
         <v>358</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
         <v>360</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>170</v>
@@ -5869,286 +6019,286 @@
         <v>88</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
         <v>362</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E358" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
         <v>364</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
         <v>365</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
         <v>368</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
         <v>371</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
         <v>374</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
         <v>375</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
         <v>376</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
         <v>355</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
         <v>356</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="G367" s="4" t="n">
         <v>40206</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
         <v>361</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
         <v>366</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
         <v>367</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
         <v>373</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
         <v>372</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
         <v>363</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
         <v>357</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
         <v>354</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
         <v>370</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
         <v>377</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
         <v>359</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="E384" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="n">
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
         <v>386</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6306,7 @@
         <v>385</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>70</v>
@@ -6165,36 +6315,36 @@
         <v>104</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,7 +6352,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>70</v>
@@ -6211,612 +6361,612 @@
         <v>104</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
         <v>395</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
         <v>396</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="E396" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
         <v>398</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
         <v>404</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
         <v>394</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
         <v>410</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
         <v>411</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="n">
         <v>412</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
         <v>413</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="n">
         <v>399</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
         <v>406</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
         <v>407</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
         <v>393</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
         <v>405</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="n">
         <v>409</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="n">
         <v>400</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="n">
         <v>402</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
         <v>397</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="n">
         <v>401</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
         <v>414</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
         <v>408</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="n">
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="E419" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="n">
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="n">
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="n">
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="n">
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="n">
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="n">
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="n">
         <v>425</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
         <v>428</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="n">
         <v>432</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="n">
         <v>437</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="E429" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="n">
         <v>438</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="D430" s="0"/>
     </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="n">
         <v>446</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
         <v>448</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="E432" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="n">
         <v>449</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="n">
         <v>450</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="n">
         <v>424</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="n">
         <v>429</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
         <v>436</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
         <v>439</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="n">
         <v>443</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="n">
         <v>444</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
         <v>445</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="E441" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="n">
         <v>447</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
         <v>431</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="n">
         <v>435</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="n">
         <v>426</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="n">
         <v>442</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="n">
         <v>434</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="n">
         <v>430</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="n">
         <v>433</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="n">
         <v>441</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="E450" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="n">
         <v>451</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="n">
         <v>440</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="n">
         <v>427</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="n">
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="E454" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="n">
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="E455" s="0" t="s">
         <v>88</v>
@@ -6828,126 +6978,126 @@
         <v>104</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="n">
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="n">
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="n">
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="n">
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="n">
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="n">
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="E461" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="n">
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="n">
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="G463" s="4" t="n">
         <v>43463</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="n">
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="n">
         <v>465</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="E465" s="0" t="s">
         <v>78</v>
@@ -6958,7 +7108,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>70</v>
@@ -6970,372 +7120,372 @@
         <v>88</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="n">
         <v>463</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="n">
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="n">
         <v>474</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="n">
         <v>475</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="E470" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="n">
         <v>479</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="n">
         <v>468</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>625</v>
+        <v>191</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="n">
         <v>484</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="E473" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="n">
         <v>491</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="n">
         <v>494</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="n">
         <v>476</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="n">
         <v>469</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="n">
         <v>480</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="n">
         <v>483</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="n">
         <v>485</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="n">
         <v>487</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="n">
         <v>473</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="E482" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="n">
         <v>488</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="D483" s="0"/>
     </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="n">
         <v>467</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="n">
         <v>478</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="E485" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="n">
         <v>482</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="n">
         <v>489</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="n">
         <v>470</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="n">
         <v>471</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="n">
         <v>481</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="n">
         <v>486</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="n">
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="n">
         <v>492</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="n">
         <v>493</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="n">
         <v>477</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="n">
         <v>495</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="n">
         <v>472</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="n">
         <v>497</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="n">
         <v>498</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="n">
         <v>496</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="n">
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,7 +7493,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>70</v>
@@ -7352,952 +7502,952 @@
         <v>104</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="n">
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="n">
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="n">
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="E505" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="n">
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="n">
         <v>506</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="n">
         <v>507</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="n">
         <v>505</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="n">
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="n">
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="n">
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="n">
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="n">
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="n">
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="n">
         <v>522</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="n">
         <v>523</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="n">
         <v>525</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="n">
         <v>526</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="n">
         <v>533</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="n">
         <v>534</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="n">
         <v>538</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="E522" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="n">
         <v>541</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="E523" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="n">
         <v>543</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="n">
         <v>524</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="n">
         <v>528</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="E526" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="n">
         <v>532</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="n">
         <v>514</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="n">
         <v>516</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="n">
         <v>531</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="n">
         <v>537</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="n">
         <v>539</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="n">
         <v>519</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="E533" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="n">
         <v>527</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="E534" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="n">
         <v>530</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="E535" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="n">
         <v>535</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="E536" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="n">
         <v>518</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="E537" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="n">
         <v>520</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="E538" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="n">
         <v>521</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="n">
         <v>536</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="n">
         <v>540</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="n">
         <v>542</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="E542" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="n">
         <v>517</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="n">
         <v>529</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="n">
         <v>515</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="n">
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="n">
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="n">
         <v>548</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="n">
         <v>549</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="n">
         <v>547</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="n">
         <v>546</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="E551" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="n">
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="n">
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E553" s="0" t="s">
         <v>56</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="n">
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="E554" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="n">
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="n">
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="n">
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="n">
         <v>560</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="n">
         <v>561</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="n">
         <v>569</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="n">
         <v>574</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="E561" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="n">
         <v>557</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="E562" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="n">
         <v>563</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="n">
         <v>564</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="n">
         <v>566</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="E565" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="n">
         <v>568</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="567" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="n">
         <v>571</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="568" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="n">
         <v>556</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="n">
         <v>565</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="570" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="n">
         <v>572</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="571" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="n">
         <v>573</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>789</v>
+        <v>470</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="n">
         <v>558</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="n">
         <v>559</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="n">
         <v>570</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>625</v>
+        <v>191</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="E574" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="n">
         <v>562</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="n">
         <v>567</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="n">
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="n">
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="n">
         <v>579</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="n">
         <v>580</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="n">
         <v>577</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="n">
         <v>578</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="n">
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="n">
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="E584" s="0" t="s">
         <v>166</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="585" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="n">
         <v>584</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="n">
         <v>585</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="E586" s="0" t="s">
         <v>43</v>
@@ -8308,7 +8458,7 @@
         <v>583</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8316,7 +8466,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,7 +8474,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8332,7 +8482,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,7 +8490,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8348,7 +8498,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8356,7 +8506,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8364,7 +8514,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8372,7 +8522,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,17 +8530,11 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C586">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="NaN"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C586"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/meta data.xlsx
+++ b/meta data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="849">
   <si>
     <t xml:space="preserve">Expected Output</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t xml:space="preserve">8b916b49.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/202</t>
   </si>
   <si>
     <t xml:space="preserve">8c015834.jpeg</t>
@@ -2689,9 +2692,9 @@
   <dimension ref="A1:G596"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
+      <selection pane="bottomLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4000,13 +4003,16 @@
       <c r="B109" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>301</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +4020,7 @@
         <v>302</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4028,7 @@
         <v>303</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +4036,7 @@
         <v>308</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +4044,7 @@
         <v>336</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +4052,7 @@
         <v>337</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,7 +4060,7 @@
         <v>338</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,7 +4068,7 @@
         <v>339</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4076,7 @@
         <v>340</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,7 +4084,7 @@
         <v>341</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,7 +4092,7 @@
         <v>342</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,7 +4100,7 @@
         <v>343</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,7 +4108,7 @@
         <v>346</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4116,7 @@
         <v>344</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,7 +4124,7 @@
         <v>345</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,7 +4132,7 @@
         <v>347</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +4140,7 @@
         <v>348</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,7 +4148,7 @@
         <v>351</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,7 +4156,7 @@
         <v>349</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,7 +4164,7 @@
         <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4172,7 @@
         <v>352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,7 +4180,7 @@
         <v>353</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,7 +4188,7 @@
         <v>33</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,7 +4204,7 @@
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,7 +4212,7 @@
         <v>43</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +4220,7 @@
         <v>44</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +4228,7 @@
         <v>48</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,7 +4236,7 @@
         <v>64</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,7 +4244,7 @@
         <v>71</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4252,7 @@
         <v>72</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4260,7 @@
         <v>76</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,7 +4268,7 @@
         <v>77</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,7 +4276,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,7 +4284,7 @@
         <v>101</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,7 +4292,7 @@
         <v>102</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,7 +4300,7 @@
         <v>105</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,7 +4316,7 @@
         <v>117</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,7 +4324,7 @@
         <v>136</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,7 +4332,7 @@
         <v>137</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +4340,7 @@
         <v>139</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4348,7 @@
         <v>138</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,7 +4356,7 @@
         <v>140</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,7 +4364,7 @@
         <v>143</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4380,7 @@
         <v>170</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,7 +4388,7 @@
         <v>171</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +4396,7 @@
         <v>172</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,7 +4404,7 @@
         <v>177</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +4412,7 @@
         <v>181</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,7 +4420,7 @@
         <v>180</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +4428,7 @@
         <v>205</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4436,7 @@
         <v>206</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,7 +4444,7 @@
         <v>208</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4452,7 @@
         <v>211</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4460,7 @@
         <v>212</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +4468,7 @@
         <v>214</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,7 +4476,7 @@
         <v>218</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4484,7 @@
         <v>16</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4492,7 @@
         <v>235</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4500,7 @@
         <v>236</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4508,7 @@
         <v>242</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4516,7 @@
         <v>243</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4524,7 @@
         <v>249</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4532,7 @@
         <v>254</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4540,7 @@
         <v>257</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4548,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4556,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,7 +4564,7 @@
         <v>275</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +4572,7 @@
         <v>279</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4580,7 @@
         <v>280</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,7 +4588,7 @@
         <v>282</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4596,7 @@
         <v>287</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +4604,7 @@
         <v>288</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4612,7 @@
         <v>290</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4620,7 @@
         <v>296</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4628,7 @@
         <v>297</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4636,7 @@
         <v>313</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4644,7 @@
         <v>319</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4652,7 @@
         <v>322</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4660,7 @@
         <v>324</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4668,7 @@
         <v>325</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +4676,7 @@
         <v>326</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,7 +4684,7 @@
         <v>329</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,7 +4692,7 @@
         <v>31</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4700,7 @@
         <v>36</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4708,7 @@
         <v>40</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4716,7 @@
         <v>41</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,7 +4732,7 @@
         <v>42</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4740,7 @@
         <v>47</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4748,7 @@
         <v>65</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,7 +4756,7 @@
         <v>67</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,7 +4764,7 @@
         <v>126</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>161</v>
@@ -4769,7 +4775,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,7 +4783,7 @@
         <v>95</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,7 +4791,7 @@
         <v>96</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4793,7 +4799,7 @@
         <v>98</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +4807,7 @@
         <v>103</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,7 +4815,7 @@
         <v>106</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,7 +4831,7 @@
         <v>8</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,7 +4839,7 @@
         <v>110</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,7 +4847,7 @@
         <v>113</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,7 +4855,7 @@
         <v>115</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,7 +4871,7 @@
         <v>131</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,7 +4879,7 @@
         <v>134</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,7 +4887,7 @@
         <v>142</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +4895,7 @@
         <v>167</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +4903,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4911,7 @@
         <v>175</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +4919,7 @@
         <v>176</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,7 +4927,7 @@
         <v>202</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,7 +4935,7 @@
         <v>203</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,7 +4943,7 @@
         <v>209</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,7 +4951,7 @@
         <v>210</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,7 +4959,7 @@
         <v>213</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,7 +4967,7 @@
         <v>220</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,7 +4975,7 @@
         <v>221</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,7 +4983,7 @@
         <v>234</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +4991,7 @@
         <v>239</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +4999,7 @@
         <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,7 +5007,7 @@
         <v>248</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,7 +5015,7 @@
         <v>251</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,7 +5023,7 @@
         <v>271</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,7 +5031,7 @@
         <v>276</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,7 +5039,7 @@
         <v>295</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,7 +5047,7 @@
         <v>309</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,7 +5055,7 @@
         <v>312</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +5063,7 @@
         <v>320</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,7 +5071,7 @@
         <v>330</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,7 +5079,7 @@
         <v>334</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,7 +5087,7 @@
         <v>335</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,10 +5095,10 @@
         <v>56</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,7 +5106,7 @@
         <v>34</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C246" s="2"/>
     </row>
@@ -5109,7 +5115,7 @@
         <v>70</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5123,7 @@
         <v>127</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,7 +5131,7 @@
         <v>107</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,7 +5139,7 @@
         <v>144</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5147,7 @@
         <v>145</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5163,7 @@
         <v>146</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5171,7 @@
         <v>168</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5179,7 @@
         <v>178</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,7 +5187,7 @@
         <v>179</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5195,7 @@
         <v>217</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,7 +5203,7 @@
         <v>241</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5211,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5219,7 @@
         <v>277</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +5227,7 @@
         <v>281</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +5235,7 @@
         <v>283</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5243,7 @@
         <v>285</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,7 +5251,7 @@
         <v>293</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +5259,7 @@
         <v>311</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5267,7 @@
         <v>314</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,7 +5275,7 @@
         <v>315</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +5283,7 @@
         <v>321</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,7 +5291,7 @@
         <v>333</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5307,7 @@
         <v>45</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +5315,7 @@
         <v>62</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,7 +5323,7 @@
         <v>69</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5331,7 @@
         <v>74</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +5339,7 @@
         <v>128</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5347,7 @@
         <v>93</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5355,7 @@
         <v>116</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,10 +5363,10 @@
         <v>159</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5374,7 @@
         <v>174</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5382,7 @@
         <v>204</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +5390,7 @@
         <v>216</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5398,7 @@
         <v>219</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5406,7 @@
         <v>237</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5414,7 @@
         <v>238</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +5422,7 @@
         <v>244</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +5430,7 @@
         <v>245</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5438,7 @@
         <v>247</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +5446,7 @@
         <v>270</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +5454,7 @@
         <v>274</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,7 +5462,7 @@
         <v>278</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5470,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5478,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +5486,7 @@
         <v>310</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5494,7 @@
         <v>323</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5502,7 @@
         <v>328</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +5510,7 @@
         <v>73</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5518,7 @@
         <v>75</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5526,7 @@
         <v>99</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +5534,7 @@
         <v>111</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +5542,7 @@
         <v>114</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5550,7 @@
         <v>173</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,10 +5558,10 @@
         <v>230</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5569,7 @@
         <v>207</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,7 +5577,7 @@
         <v>240</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,7 +5585,7 @@
         <v>253</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5593,7 @@
         <v>255</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,7 +5601,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,7 +5609,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,7 +5617,7 @@
         <v>316</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,7 +5625,7 @@
         <v>318</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5633,7 @@
         <v>331</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,7 +5641,7 @@
         <v>332</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,7 +5657,7 @@
         <v>35</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,7 +5665,7 @@
         <v>94</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,7 +5673,7 @@
         <v>133</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5681,7 @@
         <v>147</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +5689,7 @@
         <v>231</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,7 +5697,7 @@
         <v>246</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,7 +5705,7 @@
         <v>250</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +5713,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,7 +5721,7 @@
         <v>286</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,7 +5729,7 @@
         <v>68</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,7 +5737,7 @@
         <v>97</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,7 +5745,7 @@
         <v>109</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,7 +5753,7 @@
         <v>112</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,10 +5761,10 @@
         <v>160</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,7 +5772,7 @@
         <v>135</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,7 +5780,7 @@
         <v>141</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,7 +5788,7 @@
         <v>252</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,7 +5796,7 @@
         <v>307</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,7 +5804,7 @@
         <v>129</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,7 +5812,7 @@
         <v>104</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5820,7 @@
         <v>118</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5828,7 @@
         <v>182</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +5836,7 @@
         <v>18</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5844,7 @@
         <v>108</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +5852,7 @@
         <v>46</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +5860,7 @@
         <v>66</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5868,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5876,7 @@
         <v>317</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,7 +5884,7 @@
         <v>88</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5892,7 @@
         <v>258</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,7 +5900,7 @@
         <v>291</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,10 +5908,10 @@
         <v>198</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,10 +5919,10 @@
         <v>265</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5924,7 +5930,7 @@
         <v>132</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,7 +5938,7 @@
         <v>63</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,7 +5946,7 @@
         <v>32</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,7 +5954,7 @@
         <v>327</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,10 +5962,10 @@
         <v>55</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5973,7 @@
         <v>304</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,7 +5981,7 @@
         <v>266</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,7 +5989,7 @@
         <v>215</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,7 +5997,7 @@
         <v>292</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,7 +6005,7 @@
         <v>358</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,10 +6013,10 @@
         <v>360</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>170</v>
@@ -6024,13 +6030,13 @@
         <v>362</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E358" s="0" t="s">
         <v>56</v>
@@ -6041,7 +6047,7 @@
         <v>364</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,7 +6055,7 @@
         <v>365</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6063,7 @@
         <v>368</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6071,7 @@
         <v>371</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,7 +6079,7 @@
         <v>374</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,7 +6087,7 @@
         <v>375</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,7 +6095,7 @@
         <v>376</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,7 +6103,7 @@
         <v>355</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,16 +6111,16 @@
         <v>356</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G367" s="4" t="n">
         <v>40206</v>
@@ -6125,7 +6131,7 @@
         <v>361</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,7 +6139,7 @@
         <v>366</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,7 +6147,7 @@
         <v>367</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,7 +6155,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,7 +6163,7 @@
         <v>373</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6171,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,13 +6179,13 @@
         <v>363</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,7 +6193,7 @@
         <v>357</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,7 +6201,7 @@
         <v>354</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,7 +6209,7 @@
         <v>370</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,13 +6217,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,7 +6231,7 @@
         <v>359</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,7 +6239,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,7 +6247,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,7 +6255,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +6263,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,13 +6271,13 @@
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E384" s="0" t="s">
         <v>88</v>
@@ -6282,7 +6288,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +6296,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,7 +6304,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6306,7 +6312,7 @@
         <v>385</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>70</v>
@@ -6320,7 +6326,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6334,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,7 +6342,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,7 +6350,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,7 +6358,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>70</v>
@@ -6366,7 +6372,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,16 +6380,16 @@
         <v>395</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,13 +6397,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E396" s="0" t="s">
         <v>85</v>
@@ -6408,7 +6414,7 @@
         <v>398</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6422,7 @@
         <v>404</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,7 +6430,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,7 +6438,7 @@
         <v>410</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6440,16 +6446,16 @@
         <v>411</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,7 +6463,7 @@
         <v>412</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,7 +6471,7 @@
         <v>413</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6473,7 +6479,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6481,7 +6487,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +6495,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6497,7 +6503,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,7 +6511,7 @@
         <v>393</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,7 +6519,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,7 +6527,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,7 +6535,7 @@
         <v>400</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6543,7 @@
         <v>402</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,7 +6551,7 @@
         <v>397</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,7 +6559,7 @@
         <v>401</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,7 +6567,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,7 +6575,7 @@
         <v>408</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,13 +6583,13 @@
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6597,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,13 +6605,13 @@
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E419" s="0" t="s">
         <v>66</v>
@@ -6616,7 +6622,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,7 +6630,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6638,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +6646,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,7 +6654,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +6662,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,7 +6670,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,13 +6678,13 @@
         <v>428</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,7 +6692,7 @@
         <v>432</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,13 +6700,13 @@
         <v>437</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E429" s="0" t="s">
         <v>88</v>
@@ -6711,7 +6717,7 @@
         <v>438</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D430" s="0"/>
     </row>
@@ -6720,7 +6726,7 @@
         <v>446</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6728,13 +6734,13 @@
         <v>448</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E432" s="0" t="s">
         <v>88</v>
@@ -6745,7 +6751,7 @@
         <v>449</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +6759,7 @@
         <v>450</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,7 +6767,7 @@
         <v>424</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,7 +6775,7 @@
         <v>429</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,13 +6783,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,13 +6797,13 @@
         <v>439</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,7 +6811,7 @@
         <v>443</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,7 +6819,7 @@
         <v>444</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,13 +6827,13 @@
         <v>445</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E441" s="0" t="s">
         <v>166</v>
@@ -6838,7 +6844,7 @@
         <v>447</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6846,7 +6852,7 @@
         <v>431</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,7 +6860,7 @@
         <v>435</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6862,7 +6868,7 @@
         <v>426</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,7 +6876,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,7 +6884,7 @@
         <v>434</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,7 +6892,7 @@
         <v>430</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,7 +6900,7 @@
         <v>433</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,13 +6908,13 @@
         <v>441</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E450" s="0" t="s">
         <v>43</v>
@@ -6919,7 +6925,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,7 +6933,7 @@
         <v>440</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,7 +6941,7 @@
         <v>427</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,13 +6949,13 @@
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E454" s="0" t="s">
         <v>66</v>
@@ -6960,13 +6966,13 @@
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E455" s="0" t="s">
         <v>88</v>
@@ -6983,13 +6989,13 @@
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6997,7 +7003,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,13 +7011,13 @@
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,7 +7025,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,7 +7033,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,13 +7041,13 @@
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E461" s="0" t="s">
         <v>43</v>
@@ -7052,7 +7058,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,19 +7066,19 @@
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G463" s="4" t="n">
         <v>43463</v>
@@ -7083,7 +7089,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,13 +7097,13 @@
         <v>465</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E465" s="0" t="s">
         <v>78</v>
@@ -7108,7 +7114,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>70</v>
@@ -7125,16 +7131,16 @@
         <v>463</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,7 +7148,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7150,7 +7156,7 @@
         <v>474</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,13 +7164,13 @@
         <v>475</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E470" s="0" t="s">
         <v>88</v>
@@ -7175,7 +7181,7 @@
         <v>479</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,16 +7189,16 @@
         <v>468</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,13 +7206,13 @@
         <v>484</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E473" s="0" t="s">
         <v>66</v>
@@ -7217,7 +7223,7 @@
         <v>491</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,7 +7231,7 @@
         <v>494</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,7 +7239,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7241,7 +7247,7 @@
         <v>469</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,7 +7255,7 @@
         <v>480</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,7 +7263,7 @@
         <v>483</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7271,7 @@
         <v>485</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,7 +7279,7 @@
         <v>487</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7281,13 +7287,13 @@
         <v>473</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E482" s="0" t="s">
         <v>51</v>
@@ -7298,7 +7304,7 @@
         <v>488</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D483" s="0"/>
     </row>
@@ -7307,16 +7313,16 @@
         <v>467</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,13 +7330,13 @@
         <v>478</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E485" s="0" t="s">
         <v>97</v>
@@ -7341,7 +7347,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,7 +7355,7 @@
         <v>489</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,7 +7363,7 @@
         <v>470</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,7 +7371,7 @@
         <v>471</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,13 +7379,13 @@
         <v>481</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,7 +7393,7 @@
         <v>486</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,7 +7401,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7403,7 +7409,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,7 +7417,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,7 +7425,7 @@
         <v>477</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,7 +7433,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,7 +7441,7 @@
         <v>472</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,7 +7449,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7451,16 +7457,16 @@
         <v>498</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7468,16 +7474,16 @@
         <v>496</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,7 +7491,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,7 +7499,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>70</v>
@@ -7507,16 +7513,16 @@
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7524,13 +7530,13 @@
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7538,13 +7544,13 @@
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E505" s="0" t="s">
         <v>97</v>
@@ -7555,7 +7561,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,7 +7569,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,7 +7577,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,7 +7585,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7587,7 +7593,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7595,7 +7601,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,7 +7609,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,13 +7617,13 @@
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,7 +7631,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7633,7 +7639,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,7 +7647,7 @@
         <v>522</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7649,7 +7655,7 @@
         <v>523</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,7 +7663,7 @@
         <v>525</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,7 +7671,7 @@
         <v>526</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,7 +7679,7 @@
         <v>533</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,7 +7687,7 @@
         <v>534</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,13 +7695,13 @@
         <v>538</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E522" s="0" t="s">
         <v>88</v>
@@ -7706,13 +7712,13 @@
         <v>541</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E523" s="0" t="s">
         <v>85</v>
@@ -7723,7 +7729,7 @@
         <v>543</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,7 +7737,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,13 +7745,13 @@
         <v>528</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E526" s="0" t="s">
         <v>85</v>
@@ -7756,7 +7762,7 @@
         <v>532</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,16 +7770,16 @@
         <v>514</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,7 +7787,7 @@
         <v>516</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,7 +7795,7 @@
         <v>531</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,7 +7803,7 @@
         <v>537</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +7811,7 @@
         <v>539</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,13 +7819,13 @@
         <v>519</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E533" s="0" t="s">
         <v>78</v>
@@ -7830,13 +7836,13 @@
         <v>527</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E534" s="0" t="s">
         <v>88</v>
@@ -7847,13 +7853,13 @@
         <v>530</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E535" s="0" t="s">
         <v>85</v>
@@ -7864,13 +7870,13 @@
         <v>535</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E536" s="0" t="s">
         <v>78</v>
@@ -7881,13 +7887,13 @@
         <v>518</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E537" s="0" t="s">
         <v>78</v>
@@ -7898,13 +7904,13 @@
         <v>520</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E538" s="0" t="s">
         <v>88</v>
@@ -7915,16 +7921,16 @@
         <v>521</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7932,7 +7938,7 @@
         <v>536</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7940,13 +7946,13 @@
         <v>540</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>43</v>
@@ -7957,13 +7963,13 @@
         <v>542</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E542" s="0" t="s">
         <v>43</v>
@@ -7974,7 +7980,7 @@
         <v>517</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7982,7 +7988,7 @@
         <v>529</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,7 +7996,7 @@
         <v>515</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7998,7 +8004,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8006,7 +8012,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8014,13 +8020,13 @@
         <v>548</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>104</v>
@@ -8031,7 +8037,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8039,7 +8045,7 @@
         <v>547</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,13 +8053,13 @@
         <v>546</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E551" s="0" t="s">
         <v>88</v>
@@ -8064,7 +8070,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,19 +8078,19 @@
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E553" s="0" t="s">
         <v>56</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8092,13 +8098,13 @@
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E554" s="0" t="s">
         <v>85</v>
@@ -8109,7 +8115,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,7 +8123,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,7 +8131,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,7 +8139,7 @@
         <v>560</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,7 +8147,7 @@
         <v>561</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,7 +8155,7 @@
         <v>569</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,13 +8163,13 @@
         <v>574</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E561" s="0" t="s">
         <v>56</v>
@@ -8174,13 +8180,13 @@
         <v>557</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E562" s="0" t="s">
         <v>166</v>
@@ -8191,7 +8197,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,16 +8205,16 @@
         <v>564</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8216,13 +8222,13 @@
         <v>566</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E565" s="0" t="s">
         <v>78</v>
@@ -8233,7 +8239,7 @@
         <v>568</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,7 +8247,7 @@
         <v>571</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,7 +8255,7 @@
         <v>556</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,7 +8263,7 @@
         <v>565</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,7 +8271,7 @@
         <v>572</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,16 +8279,16 @@
         <v>573</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8290,7 +8296,7 @@
         <v>558</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,7 +8304,7 @@
         <v>559</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8306,13 +8312,13 @@
         <v>570</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E574" s="0" t="s">
         <v>97</v>
@@ -8323,16 +8329,16 @@
         <v>562</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,7 +8346,7 @@
         <v>567</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8348,7 +8354,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8356,7 +8362,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8364,7 +8370,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8372,7 +8378,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,7 +8386,7 @@
         <v>577</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8388,16 +8394,16 @@
         <v>578</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,7 +8411,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8413,19 +8419,19 @@
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E584" s="0" t="s">
         <v>166</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,7 +8439,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8441,13 +8447,13 @@
         <v>585</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E586" s="0" t="s">
         <v>43</v>
@@ -8458,7 +8464,7 @@
         <v>583</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,7 +8472,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,7 +8480,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8482,7 +8488,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,7 +8496,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +8504,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8506,7 +8512,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8514,7 +8520,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8528,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,7 +8536,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
